--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="504">
   <si>
     <t>Nombre</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>3 1</t>
+  </si>
+  <si>
+    <t>prueba</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2048,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>503</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>384</v>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="505">
   <si>
     <t>Nombre</t>
   </si>
@@ -1549,6 +1549,9 @@
   </si>
   <si>
     <t>prueba</t>
+  </si>
+  <si>
+    <t>09548416N</t>
   </si>
 </sst>
 </file>
@@ -2670,7 +2673,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>504</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>393</v>
@@ -2758,7 +2761,7 @@
         <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>392</v>
@@ -3388,7 +3391,7 @@
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>394</v>
@@ -3564,7 +3567,7 @@
         <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>397</v>
@@ -4503,7 +4506,7 @@
         <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>405</v>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="503">
   <si>
     <t>Nombre</t>
   </si>
@@ -1546,12 +1546,6 @@
   </si>
   <si>
     <t>3 1</t>
-  </si>
-  <si>
-    <t>prueba</t>
-  </si>
-  <si>
-    <t>09548416N</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2045,7 @@
         <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>503</v>
+        <v>174</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>384</v>
@@ -2673,7 +2667,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>504</v>
+        <v>188</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>393</v>
@@ -2761,7 +2755,7 @@
         <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>392</v>
@@ -3391,7 +3385,7 @@
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>394</v>
@@ -3567,7 +3561,7 @@
         <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>397</v>
@@ -4506,7 +4500,7 @@
         <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>405</v>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="504">
   <si>
     <t>Nombre</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>3 1</t>
+  </si>
+  <si>
+    <t>09548416N</t>
   </si>
 </sst>
 </file>
@@ -2667,7 +2670,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>503</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>393</v>
@@ -2755,7 +2758,7 @@
         <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>392</v>
@@ -3385,7 +3388,7 @@
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>394</v>
@@ -3561,7 +3564,7 @@
         <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>397</v>
@@ -4500,7 +4503,7 @@
         <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>405</v>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="672">
   <si>
     <t>Nombre</t>
   </si>
@@ -1549,6 +1549,510 @@
   </si>
   <si>
     <t>09548416N</t>
+  </si>
+  <si>
+    <t>DK7331645124473461205164</t>
+  </si>
+  <si>
+    <t>JMD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8265614874165615445616</t>
+  </si>
+  <si>
+    <t>RFM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>RO8832569523016220165156</t>
+  </si>
+  <si>
+    <t>ALM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE7424561937521546497521</t>
+  </si>
+  <si>
+    <t>ALN00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>MC6436520125638451012515</t>
+  </si>
+  <si>
+    <t>RGO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES0721584976902154655487</t>
+  </si>
+  <si>
+    <t>SDO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GR9420125003305201112544</t>
+  </si>
+  <si>
+    <t>VDO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2821651484690980008984</t>
+  </si>
+  <si>
+    <t>VBP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>FI5620960043043554600000</t>
+  </si>
+  <si>
+    <t>ABP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7921564975243245467995</t>
+  </si>
+  <si>
+    <t>MAP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>LT8032566221522587754554</t>
+  </si>
+  <si>
+    <t>ACP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>EE2023215465315456411515</t>
+  </si>
+  <si>
+    <t>LBP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SM2125894363475485700145</t>
+  </si>
+  <si>
+    <t>LBR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9596431245118150005156</t>
+  </si>
+  <si>
+    <t>SBR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>AT6825030000114574745458</t>
+  </si>
+  <si>
+    <t>AGR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>IT8915953684811254695203</t>
+  </si>
+  <si>
+    <t>DGR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DK5800750184310702510000</t>
+  </si>
+  <si>
+    <t>CIS00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5023455254943263234457</t>
+  </si>
+  <si>
+    <t>MQ00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GR4920910936583000000000</t>
+  </si>
+  <si>
+    <t>BV00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES3720960043032159000000</t>
+  </si>
+  <si>
+    <t>PP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE5512669681115112121210</t>
+  </si>
+  <si>
+    <t>PC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2956187775315550000651</t>
+  </si>
+  <si>
+    <t>GMM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES0425516848021156151054</t>
+  </si>
+  <si>
+    <t>CGM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>PT5764578946740051516490</t>
+  </si>
+  <si>
+    <t>GMM01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES4534698752714600549403</t>
+  </si>
+  <si>
+    <t>CSN00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2766649444162310000255</t>
+  </si>
+  <si>
+    <t>ALO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>FR5623185484465641685100</t>
+  </si>
+  <si>
+    <t>GMM02@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE5021508149175421346497</t>
+  </si>
+  <si>
+    <t>TCP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE6721346154503164978451</t>
+  </si>
+  <si>
+    <t>CCP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7225187786311225455548</t>
+  </si>
+  <si>
+    <t>CAP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2396536214865214585214</t>
+  </si>
+  <si>
+    <t>ELR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6885461325251978750005</t>
+  </si>
+  <si>
+    <t>DLR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5020960043073071400000</t>
+  </si>
+  <si>
+    <t>SPR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8220960043042158800000</t>
+  </si>
+  <si>
+    <t>GPR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7521654587985156484454</t>
+  </si>
+  <si>
+    <t>SAS00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES3251651681961210656510</t>
+  </si>
+  <si>
+    <t>BFS00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5566552211148855332200</t>
+  </si>
+  <si>
+    <t>DFG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GB9720910936583000000000</t>
+  </si>
+  <si>
+    <t>GMG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE9301821135910205540000</t>
+  </si>
+  <si>
+    <t>MLG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE7822631245526916432102</t>
+  </si>
+  <si>
+    <t>IAG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2120960043043075700000</t>
+  </si>
+  <si>
+    <t>IAG01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SM7325635478321002541225</t>
+  </si>
+  <si>
+    <t>GPG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6832154697195423121000</t>
+  </si>
+  <si>
+    <t>RGG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GB5520008521528775113366</t>
+  </si>
+  <si>
+    <t>AFG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8020960043033000100000</t>
+  </si>
+  <si>
+    <t>APM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GB0836585214290025478551</t>
+  </si>
+  <si>
+    <t>GMM03@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9012548523465214585214</t>
+  </si>
+  <si>
+    <t>ALM01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6931624561042546920007</t>
+  </si>
+  <si>
+    <t>LDM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES1436154231712500312566</t>
+  </si>
+  <si>
+    <t>AD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8244875664127231645789</t>
+  </si>
+  <si>
+    <t>LR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7920960031442124800000</t>
+  </si>
+  <si>
+    <t>LC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES1933218885441445121022</t>
+  </si>
+  <si>
+    <t>AFG01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8462581542713690044508</t>
+  </si>
+  <si>
+    <t>DGG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SOG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>PT3536952365020014425254</t>
+  </si>
+  <si>
+    <t>VVG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9565168874641561561500</t>
+  </si>
+  <si>
+    <t>VMG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES3220960583831234500000</t>
+  </si>
+  <si>
+    <t>MBG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7221416325811510005514</t>
+  </si>
+  <si>
+    <t>CBG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8163516541828944000984</t>
+  </si>
+  <si>
+    <t>SDM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>ES6223658965274585223202</t>
+  </si>
+  <si>
+    <t>EGM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>FI6132658012367712548745</t>
+  </si>
+  <si>
+    <t>GPM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7223652365142254222000</t>
+  </si>
+  <si>
+    <t>EAM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9232584216971684051000</t>
+  </si>
+  <si>
+    <t>MG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7395485212315484010000</t>
+  </si>
+  <si>
+    <t>JAC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>LT9321856333126985542360</t>
+  </si>
+  <si>
+    <t>BDC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5736245978133245679001</t>
+  </si>
+  <si>
+    <t>NGC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7631245164156597845124</t>
+  </si>
+  <si>
+    <t>MLC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SE6832574512085411002255</t>
+  </si>
+  <si>
+    <t>MLC01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES4420960043013468900000</t>
+  </si>
+  <si>
+    <t>CFC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5631215643855060225021</t>
+  </si>
+  <si>
+    <t>CGC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES1665165654918886005001</t>
+  </si>
+  <si>
+    <t>KSC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>AT8365645150865168448896</t>
+  </si>
+  <si>
+    <t>MHC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>IT3526551681807651415636</t>
+  </si>
+  <si>
+    <t>CLD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>HU2399558741836555551120</t>
+  </si>
+  <si>
+    <t>MFD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>IE6851556584221251000254</t>
+  </si>
+  <si>
+    <t>GMM04@Agua2024.com</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>DMC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>EBC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>MSC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>MDC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>MFC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>CDD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>AT3122515651915640081000</t>
+  </si>
+  <si>
+    <t>HPD00@Agua2024.com</t>
   </si>
 </sst>
 </file>
@@ -2018,6 +2522,12 @@
       <c r="H2" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="I2" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>505</v>
+      </c>
       <c r="K2" t="s" s="0">
         <v>264</v>
       </c>
@@ -2062,6 +2572,12 @@
       <c r="H3" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="I3" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>507</v>
+      </c>
       <c r="K3" t="s" s="0">
         <v>264</v>
       </c>
@@ -2106,6 +2622,12 @@
       <c r="H4" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="I4" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>509</v>
+      </c>
       <c r="K4" t="s" s="0">
         <v>264</v>
       </c>
@@ -2150,6 +2672,12 @@
       <c r="H5" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="I5" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>511</v>
+      </c>
       <c r="K5" t="s" s="0">
         <v>264</v>
       </c>
@@ -2194,6 +2722,12 @@
       <c r="H6" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="I6" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>513</v>
+      </c>
       <c r="K6" t="s" s="0">
         <v>264</v>
       </c>
@@ -2238,6 +2772,12 @@
       <c r="H7" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="I7" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>515</v>
+      </c>
       <c r="K7" t="s" s="0">
         <v>264</v>
       </c>
@@ -2282,6 +2822,12 @@
       <c r="H8" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="I8" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>517</v>
+      </c>
       <c r="K8" t="s" s="0">
         <v>264</v>
       </c>
@@ -2326,6 +2872,12 @@
       <c r="H9" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="I9" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>519</v>
+      </c>
       <c r="K9" t="s" s="0">
         <v>264</v>
       </c>
@@ -2370,6 +2922,12 @@
       <c r="H10" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="I10" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>521</v>
+      </c>
       <c r="K10" t="s" s="0">
         <v>264</v>
       </c>
@@ -2414,6 +2972,12 @@
       <c r="H11" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="I11" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>523</v>
+      </c>
       <c r="K11" t="s" s="0">
         <v>264</v>
       </c>
@@ -2458,6 +3022,12 @@
       <c r="H12" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="I12" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>525</v>
+      </c>
       <c r="K12" t="s" s="0">
         <v>264</v>
       </c>
@@ -2501,6 +3071,12 @@
       </c>
       <c r="H13" s="3" t="s">
         <v>278</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>527</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>264</v>
@@ -2596,6 +3172,12 @@
       <c r="H16" s="3" t="s">
         <v>280</v>
       </c>
+      <c r="I16" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>529</v>
+      </c>
       <c r="K16" t="s" s="0">
         <v>264</v>
       </c>
@@ -2640,6 +3222,12 @@
       <c r="H17" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="I17" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>531</v>
+      </c>
       <c r="K17" t="s" s="0">
         <v>264</v>
       </c>
@@ -2684,6 +3272,12 @@
       <c r="H18" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="I18" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>533</v>
+      </c>
       <c r="K18" t="s" s="0">
         <v>264</v>
       </c>
@@ -2728,6 +3322,12 @@
       <c r="H19" s="3" t="s">
         <v>283</v>
       </c>
+      <c r="I19" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>535</v>
+      </c>
       <c r="K19" t="s" s="0">
         <v>264</v>
       </c>
@@ -2816,6 +3416,12 @@
       <c r="H21" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="I21" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>537</v>
+      </c>
       <c r="K21" t="s" s="0">
         <v>264</v>
       </c>
@@ -2857,6 +3463,12 @@
       <c r="H22" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="I22" t="s" s="0">
+        <v>538</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>539</v>
+      </c>
       <c r="K22" t="s" s="0">
         <v>264</v>
       </c>
@@ -2898,6 +3510,12 @@
       <c r="H23" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="I23" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>541</v>
+      </c>
       <c r="K23" t="s" s="0">
         <v>264</v>
       </c>
@@ -2939,6 +3557,12 @@
       <c r="H24" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="I24" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>543</v>
+      </c>
       <c r="K24" t="s" s="0">
         <v>264</v>
       </c>
@@ -2979,6 +3603,12 @@
       </c>
       <c r="H25" s="3" t="s">
         <v>288</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>545</v>
       </c>
       <c r="K25" t="s" s="0">
         <v>264</v>
@@ -3032,6 +3662,12 @@
       <c r="H27" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="I27" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>547</v>
+      </c>
       <c r="K27" t="s" s="0">
         <v>264</v>
       </c>
@@ -3076,6 +3712,12 @@
       <c r="H28" s="3" t="s">
         <v>290</v>
       </c>
+      <c r="I28" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>549</v>
+      </c>
       <c r="K28" t="s" s="0">
         <v>264</v>
       </c>
@@ -3120,6 +3762,12 @@
       <c r="H29" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="I29" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>551</v>
+      </c>
       <c r="K29" t="s" s="0">
         <v>264</v>
       </c>
@@ -3164,6 +3812,12 @@
       <c r="H30" s="3" t="s">
         <v>292</v>
       </c>
+      <c r="I30" t="s" s="0">
+        <v>552</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>553</v>
+      </c>
       <c r="K30" t="s" s="0">
         <v>264</v>
       </c>
@@ -3208,6 +3862,12 @@
       <c r="H31" s="3" t="s">
         <v>293</v>
       </c>
+      <c r="I31" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>555</v>
+      </c>
       <c r="K31" t="s" s="0">
         <v>264</v>
       </c>
@@ -3251,6 +3911,12 @@
       </c>
       <c r="H32" s="3" t="s">
         <v>294</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>557</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>264</v>
@@ -3314,6 +3980,12 @@
       <c r="H36" s="3" t="s">
         <v>295</v>
       </c>
+      <c r="I36" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>559</v>
+      </c>
       <c r="K36" t="s" s="0">
         <v>264</v>
       </c>
@@ -3358,6 +4030,12 @@
       <c r="H37" s="3" t="s">
         <v>296</v>
       </c>
+      <c r="I37" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>561</v>
+      </c>
       <c r="K37" t="s" s="0">
         <v>264</v>
       </c>
@@ -3402,6 +4080,12 @@
       <c r="H38" s="3" t="s">
         <v>297</v>
       </c>
+      <c r="I38" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>563</v>
+      </c>
       <c r="K38" t="s" s="0">
         <v>264</v>
       </c>
@@ -3490,6 +4174,12 @@
       <c r="H40" s="3" t="s">
         <v>299</v>
       </c>
+      <c r="I40" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>565</v>
+      </c>
       <c r="K40" t="s" s="0">
         <v>264</v>
       </c>
@@ -3534,6 +4224,12 @@
       <c r="H41" s="3" t="s">
         <v>300</v>
       </c>
+      <c r="I41" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>567</v>
+      </c>
       <c r="K41" t="s" s="0">
         <v>264</v>
       </c>
@@ -3622,6 +4318,12 @@
       <c r="H43" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="I43" t="s" s="0">
+        <v>568</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>569</v>
+      </c>
       <c r="K43" t="s" s="0">
         <v>264</v>
       </c>
@@ -3666,6 +4368,12 @@
       <c r="H44" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="I44" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>571</v>
+      </c>
       <c r="K44" t="s" s="0">
         <v>264</v>
       </c>
@@ -3710,6 +4418,12 @@
       <c r="H45" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="I45" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>573</v>
+      </c>
       <c r="K45" t="s" s="0">
         <v>264</v>
       </c>
@@ -3754,6 +4468,12 @@
       <c r="H46" s="3" t="s">
         <v>305</v>
       </c>
+      <c r="I46" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>575</v>
+      </c>
       <c r="K46" t="s" s="0">
         <v>264</v>
       </c>
@@ -3798,6 +4518,12 @@
       <c r="H47" s="3" t="s">
         <v>306</v>
       </c>
+      <c r="I47" t="s" s="0">
+        <v>576</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>577</v>
+      </c>
       <c r="K47" t="s" s="0">
         <v>264</v>
       </c>
@@ -3842,6 +4568,12 @@
       <c r="H48" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="I48" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>579</v>
+      </c>
       <c r="K48" t="s" s="0">
         <v>264</v>
       </c>
@@ -3886,6 +4618,12 @@
       <c r="H49" s="3" t="s">
         <v>307</v>
       </c>
+      <c r="I49" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>581</v>
+      </c>
       <c r="K49" t="s" s="0">
         <v>264</v>
       </c>
@@ -3930,6 +4668,12 @@
       <c r="H50" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="I50" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>583</v>
+      </c>
       <c r="K50" t="s" s="0">
         <v>264</v>
       </c>
@@ -3974,6 +4718,12 @@
       <c r="H51" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="I51" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>585</v>
+      </c>
       <c r="K51" t="s" s="0">
         <v>264</v>
       </c>
@@ -4018,6 +4768,12 @@
       <c r="H52" s="3" t="s">
         <v>310</v>
       </c>
+      <c r="I52" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>587</v>
+      </c>
       <c r="K52" t="s" s="0">
         <v>264</v>
       </c>
@@ -4062,6 +4818,12 @@
       <c r="H53" s="3" t="s">
         <v>311</v>
       </c>
+      <c r="I53" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>589</v>
+      </c>
       <c r="K53" t="s" s="0">
         <v>264</v>
       </c>
@@ -4149,6 +4911,12 @@
       </c>
       <c r="H55" s="3" t="s">
         <v>313</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>591</v>
       </c>
       <c r="K55" t="s" s="0">
         <v>264</v>
@@ -4218,6 +4986,12 @@
       <c r="H60" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="I60" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>593</v>
+      </c>
       <c r="K60" t="s" s="0">
         <v>264</v>
       </c>
@@ -4262,6 +5036,12 @@
       <c r="H61" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="I61" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>595</v>
+      </c>
       <c r="K61" t="s" s="0">
         <v>264</v>
       </c>
@@ -4306,6 +5086,12 @@
       <c r="H62" s="3" t="s">
         <v>316</v>
       </c>
+      <c r="I62" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>597</v>
+      </c>
       <c r="K62" t="s" s="0">
         <v>264</v>
       </c>
@@ -4350,6 +5136,12 @@
       <c r="H63" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="I63" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>599</v>
+      </c>
       <c r="K63" t="s" s="0">
         <v>264</v>
       </c>
@@ -4391,6 +5183,12 @@
       <c r="H64" s="3" t="s">
         <v>318</v>
       </c>
+      <c r="I64" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>601</v>
+      </c>
       <c r="K64" t="s" s="0">
         <v>264</v>
       </c>
@@ -4432,6 +5230,12 @@
       <c r="H65" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="I65" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>603</v>
+      </c>
       <c r="K65" t="s" s="0">
         <v>264</v>
       </c>
@@ -4473,6 +5277,12 @@
       <c r="H66" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="I66" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>605</v>
+      </c>
       <c r="K66" t="s" s="0">
         <v>264</v>
       </c>
@@ -4561,6 +5371,12 @@
       <c r="H68" s="3" t="s">
         <v>322</v>
       </c>
+      <c r="I68" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>607</v>
+      </c>
       <c r="K68" t="s" s="0">
         <v>264</v>
       </c>
@@ -4605,6 +5421,12 @@
       <c r="H69" s="3" t="s">
         <v>323</v>
       </c>
+      <c r="I69" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>609</v>
+      </c>
       <c r="K69" t="s" s="0">
         <v>264</v>
       </c>
@@ -4693,6 +5515,12 @@
       <c r="H71" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="I71" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>610</v>
+      </c>
       <c r="K71" t="s" s="0">
         <v>264</v>
       </c>
@@ -4737,6 +5565,12 @@
       <c r="H72" s="3" t="s">
         <v>325</v>
       </c>
+      <c r="I72" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>612</v>
+      </c>
       <c r="K72" t="s" s="0">
         <v>264</v>
       </c>
@@ -4781,6 +5615,12 @@
       <c r="H73" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="I73" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>614</v>
+      </c>
       <c r="K73" t="s" s="0">
         <v>264</v>
       </c>
@@ -4825,6 +5665,12 @@
       <c r="H74" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="I74" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>616</v>
+      </c>
       <c r="K74" t="s" s="0">
         <v>264</v>
       </c>
@@ -4868,6 +5714,12 @@
       </c>
       <c r="H75" s="3" t="s">
         <v>328</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>618</v>
       </c>
       <c r="K75" t="s" s="0">
         <v>264</v>
@@ -5007,6 +5859,12 @@
       <c r="H79" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="I79" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>620</v>
+      </c>
       <c r="K79" t="s" s="0">
         <v>264</v>
       </c>
@@ -5049,7 +5907,13 @@
         <v>363</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>332</v>
+        <v>621</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>623</v>
       </c>
       <c r="K80" t="s" s="0">
         <v>264</v>
@@ -5095,6 +5959,12 @@
       <c r="H81" s="3" t="s">
         <v>333</v>
       </c>
+      <c r="I81" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>625</v>
+      </c>
       <c r="K81" t="s" s="0">
         <v>264</v>
       </c>
@@ -5139,6 +6009,12 @@
       <c r="H82" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="I82" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>627</v>
+      </c>
       <c r="K82" t="s" s="0">
         <v>264</v>
       </c>
@@ -5223,6 +6099,12 @@
       </c>
       <c r="H84" s="3" t="s">
         <v>336</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>629</v>
       </c>
       <c r="K84" t="s" s="0">
         <v>264</v>
@@ -5274,6 +6156,12 @@
       <c r="H86" s="3" t="s">
         <v>337</v>
       </c>
+      <c r="I86" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>631</v>
+      </c>
       <c r="K86" t="s" s="0">
         <v>264</v>
       </c>
@@ -5318,6 +6206,12 @@
       <c r="H87" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="I87" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>633</v>
+      </c>
       <c r="K87" t="s" s="0">
         <v>264</v>
       </c>
@@ -5362,6 +6256,12 @@
       <c r="H88" s="3" t="s">
         <v>339</v>
       </c>
+      <c r="I88" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>635</v>
+      </c>
       <c r="K88" t="s" s="0">
         <v>264</v>
       </c>
@@ -5406,6 +6306,12 @@
       <c r="H89" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="I89" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>637</v>
+      </c>
       <c r="K89" t="s" s="0">
         <v>264</v>
       </c>
@@ -5491,6 +6397,12 @@
       <c r="H91" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="I91" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>639</v>
+      </c>
       <c r="K91" t="s" s="0">
         <v>264</v>
       </c>
@@ -5535,6 +6447,12 @@
       <c r="H92" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="I92" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>641</v>
+      </c>
       <c r="K92" t="s" s="0">
         <v>264</v>
       </c>
@@ -5579,6 +6497,12 @@
       <c r="H93" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="I93" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>643</v>
+      </c>
       <c r="K93" t="s" s="0">
         <v>264</v>
       </c>
@@ -5664,6 +6588,12 @@
       </c>
       <c r="H95" s="3" t="s">
         <v>346</v>
+      </c>
+      <c r="I95" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>645</v>
       </c>
       <c r="K95" t="s" s="0">
         <v>264</v>
@@ -5743,7 +6673,13 @@
         <v>373</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>347</v>
+        <v>646</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>648</v>
       </c>
       <c r="K102" t="s" s="0">
         <v>264</v>
@@ -5787,7 +6723,13 @@
         <v>374</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>348</v>
+        <v>649</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>651</v>
       </c>
       <c r="K103" t="s" s="0">
         <v>264</v>
@@ -5833,6 +6775,12 @@
       <c r="H104" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="I104" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>653</v>
+      </c>
       <c r="K104" t="s" s="0">
         <v>264</v>
       </c>
@@ -5919,7 +6867,13 @@
         <v>381</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>351</v>
+        <v>654</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>656</v>
       </c>
       <c r="K106" t="s" s="0">
         <v>264</v>
@@ -6127,7 +7081,13 @@
         <v>369</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>353</v>
+        <v>657</v>
+      </c>
+      <c r="I128" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="J128" t="s" s="0">
+        <v>659</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>264</v>
@@ -6173,6 +7133,12 @@
       <c r="H129" s="3" t="s">
         <v>354</v>
       </c>
+      <c r="I129" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>661</v>
+      </c>
       <c r="K129" t="s" s="0">
         <v>264</v>
       </c>
@@ -6261,6 +7227,12 @@
       <c r="H131" s="3" t="s">
         <v>356</v>
       </c>
+      <c r="I131" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>663</v>
+      </c>
       <c r="K131" t="s" s="0">
         <v>264</v>
       </c>
@@ -6305,6 +7277,12 @@
       <c r="H132" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="I132" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>665</v>
+      </c>
       <c r="K132" t="s" s="0">
         <v>264</v>
       </c>
@@ -6349,6 +7327,12 @@
       <c r="H133" s="3" t="s">
         <v>358</v>
       </c>
+      <c r="I133" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="J133" t="s" s="0">
+        <v>667</v>
+      </c>
       <c r="K133" t="s" s="0">
         <v>264</v>
       </c>
@@ -6393,6 +7377,12 @@
       <c r="H134" s="3" t="s">
         <v>359</v>
       </c>
+      <c r="I134" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="J134" t="s" s="0">
+        <v>669</v>
+      </c>
       <c r="K134" t="s" s="0">
         <v>264</v>
       </c>
@@ -6478,6 +7468,12 @@
       </c>
       <c r="H136" s="3" t="s">
         <v>361</v>
+      </c>
+      <c r="I136" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="J136" t="s" s="0">
+        <v>671</v>
       </c>
       <c r="K136" t="s" s="0">
         <v>264</v>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="686">
   <si>
     <t>Nombre</t>
   </si>
@@ -1647,6 +1647,12 @@
     <t>DGR00@Agua2024.com</t>
   </si>
   <si>
+    <t>ES9020960043023096200000</t>
+  </si>
+  <si>
+    <t>PGS00@Agua2024.com</t>
+  </si>
+  <si>
     <t>DK5800750184310702510000</t>
   </si>
   <si>
@@ -1731,6 +1737,12 @@
     <t>CAP00@Agua2024.com</t>
   </si>
   <si>
+    <t>ES4723164897642213030615</t>
+  </si>
+  <si>
+    <t>SFP00@Agua2024.com</t>
+  </si>
+  <si>
     <t>ES2396536214865214585214</t>
   </si>
   <si>
@@ -1743,6 +1755,12 @@
     <t>DLR00@Agua2024.com</t>
   </si>
   <si>
+    <t>FI5024587946032003165464</t>
+  </si>
+  <si>
+    <t>HAR00@Agua2024.com</t>
+  </si>
+  <si>
     <t>ES5020960043073071400000</t>
   </si>
   <si>
@@ -1851,10 +1869,10 @@
     <t>LR00@Agua2024.com</t>
   </si>
   <si>
-    <t>ES7920960031442124800000</t>
-  </si>
-  <si>
-    <t>LC00@Agua2024.com</t>
+    <t>ES1633620012937852100256</t>
+  </si>
+  <si>
+    <t>SBG00@Agua2024.com</t>
   </si>
   <si>
     <t>ES1933218885441445121022</t>
@@ -1869,6 +1887,12 @@
     <t>DGG00@Agua2024.com</t>
   </si>
   <si>
+    <t>ES3925165151118666365100</t>
+  </si>
+  <si>
+    <t>ROG00@Agua2024.com</t>
+  </si>
+  <si>
     <t>SOG00@Agua2024.com</t>
   </si>
   <si>
@@ -1896,6 +1920,12 @@
     <t>CBG00@Agua2024.com</t>
   </si>
   <si>
+    <t>LU0932628484504115151115</t>
+  </si>
+  <si>
+    <t>MSH00@Agua2024.com</t>
+  </si>
+  <si>
     <t>ES8163516541828944000984</t>
   </si>
   <si>
@@ -1929,12 +1959,6 @@
     <t>MG00@Agua2024.com</t>
   </si>
   <si>
-    <t>ES7395485212315484010000</t>
-  </si>
-  <si>
-    <t>JAC00@Agua2024.com</t>
-  </si>
-  <si>
     <t>LT9321856333126985542360</t>
   </si>
   <si>
@@ -1953,6 +1977,12 @@
     <t>MLC00@Agua2024.com</t>
   </si>
   <si>
+    <t>SM4423221158252545471411</t>
+  </si>
+  <si>
+    <t>MH00@Agua2024.com</t>
+  </si>
+  <si>
     <t>SE6832574512085411002255</t>
   </si>
   <si>
@@ -2010,6 +2040,12 @@
     <t>GMM04@Agua2024.com</t>
   </si>
   <si>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>IVC00@Agua2024.com</t>
+  </si>
+  <si>
     <t>62541122421110105611</t>
   </si>
   <si>
@@ -2023,6 +2059,12 @@
   </si>
   <si>
     <t>EBC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>NBC00@Agua2024.com</t>
   </si>
   <si>
     <t>ES9712548521518742146695</t>
@@ -3372,6 +3414,12 @@
       <c r="H20" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="I20" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>537</v>
+      </c>
       <c r="K20" t="s" s="0">
         <v>264</v>
       </c>
@@ -3417,10 +3465,10 @@
         <v>279</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K21" t="s" s="0">
         <v>264</v>
@@ -3464,10 +3512,10 @@
         <v>285</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="K22" t="s" s="0">
         <v>264</v>
@@ -3511,10 +3559,10 @@
         <v>286</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>264</v>
@@ -3558,10 +3606,10 @@
         <v>287</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K24" t="s" s="0">
         <v>264</v>
@@ -3605,10 +3653,10 @@
         <v>288</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K25" t="s" s="0">
         <v>264</v>
@@ -3663,10 +3711,10 @@
         <v>289</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K27" t="s" s="0">
         <v>264</v>
@@ -3713,10 +3761,10 @@
         <v>290</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K28" t="s" s="0">
         <v>264</v>
@@ -3763,10 +3811,10 @@
         <v>291</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="K29" t="s" s="0">
         <v>264</v>
@@ -3813,10 +3861,10 @@
         <v>292</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K30" t="s" s="0">
         <v>264</v>
@@ -3863,10 +3911,10 @@
         <v>293</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K31" t="s" s="0">
         <v>264</v>
@@ -3913,10 +3961,10 @@
         <v>294</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>264</v>
@@ -3981,10 +4029,10 @@
         <v>295</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K36" t="s" s="0">
         <v>264</v>
@@ -4031,10 +4079,10 @@
         <v>296</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="K37" t="s" s="0">
         <v>264</v>
@@ -4081,10 +4129,10 @@
         <v>297</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K38" t="s" s="0">
         <v>264</v>
@@ -4130,6 +4178,12 @@
       <c r="H39" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="I39" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>567</v>
+      </c>
       <c r="K39" t="s" s="0">
         <v>264</v>
       </c>
@@ -4175,10 +4229,10 @@
         <v>299</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K40" t="s" s="0">
         <v>264</v>
@@ -4225,10 +4279,10 @@
         <v>300</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K41" t="s" s="0">
         <v>264</v>
@@ -4274,6 +4328,12 @@
       <c r="H42" s="3" t="s">
         <v>301</v>
       </c>
+      <c r="I42" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>573</v>
+      </c>
       <c r="K42" t="s" s="0">
         <v>264</v>
       </c>
@@ -4319,10 +4379,10 @@
         <v>302</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="K43" t="s" s="0">
         <v>264</v>
@@ -4369,10 +4429,10 @@
         <v>303</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K44" t="s" s="0">
         <v>264</v>
@@ -4419,10 +4479,10 @@
         <v>304</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="K45" t="s" s="0">
         <v>264</v>
@@ -4469,10 +4529,10 @@
         <v>305</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="K46" t="s" s="0">
         <v>264</v>
@@ -4519,10 +4579,10 @@
         <v>306</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="K47" t="s" s="0">
         <v>264</v>
@@ -4569,10 +4629,10 @@
         <v>286</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="K48" t="s" s="0">
         <v>264</v>
@@ -4619,10 +4679,10 @@
         <v>307</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="K49" t="s" s="0">
         <v>264</v>
@@ -4669,10 +4729,10 @@
         <v>308</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="K50" t="s" s="0">
         <v>264</v>
@@ -4719,10 +4779,10 @@
         <v>309</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="K51" t="s" s="0">
         <v>264</v>
@@ -4769,10 +4829,10 @@
         <v>310</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="K52" t="s" s="0">
         <v>264</v>
@@ -4819,10 +4879,10 @@
         <v>311</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K53" t="s" s="0">
         <v>264</v>
@@ -4913,10 +4973,10 @@
         <v>313</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="K55" t="s" s="0">
         <v>264</v>
@@ -4987,10 +5047,10 @@
         <v>314</v>
       </c>
       <c r="I60" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="K60" t="s" s="0">
         <v>264</v>
@@ -5037,10 +5097,10 @@
         <v>315</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="K61" t="s" s="0">
         <v>264</v>
@@ -5087,10 +5147,10 @@
         <v>316</v>
       </c>
       <c r="I62" t="s" s="0">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="K62" t="s" s="0">
         <v>264</v>
@@ -5137,10 +5197,10 @@
         <v>317</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="K63" t="s" s="0">
         <v>264</v>
@@ -5184,10 +5244,10 @@
         <v>318</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="J64" t="s" s="0">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="K64" t="s" s="0">
         <v>264</v>
@@ -5231,10 +5291,10 @@
         <v>319</v>
       </c>
       <c r="I65" t="s" s="0">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="J65" t="s" s="0">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K65" t="s" s="0">
         <v>264</v>
@@ -5277,12 +5337,6 @@
       <c r="H66" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I66" t="s" s="0">
-        <v>604</v>
-      </c>
-      <c r="J66" t="s" s="0">
-        <v>605</v>
-      </c>
       <c r="K66" t="s" s="0">
         <v>264</v>
       </c>
@@ -5327,6 +5381,12 @@
       <c r="H67" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="I67" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>611</v>
+      </c>
       <c r="K67" t="s" s="0">
         <v>264</v>
       </c>
@@ -5372,10 +5432,10 @@
         <v>322</v>
       </c>
       <c r="I68" t="s" s="0">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="J68" t="s" s="0">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="K68" t="s" s="0">
         <v>264</v>
@@ -5422,10 +5482,10 @@
         <v>323</v>
       </c>
       <c r="I69" t="s" s="0">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="J69" t="s" s="0">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="K69" t="s" s="0">
         <v>264</v>
@@ -5471,6 +5531,12 @@
       <c r="H70" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="I70" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>617</v>
+      </c>
       <c r="K70" t="s" s="0">
         <v>264</v>
       </c>
@@ -5516,10 +5582,10 @@
         <v>314</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="J71" t="s" s="0">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="K71" t="s" s="0">
         <v>264</v>
@@ -5566,10 +5632,10 @@
         <v>325</v>
       </c>
       <c r="I72" t="s" s="0">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="J72" t="s" s="0">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="K72" t="s" s="0">
         <v>264</v>
@@ -5616,10 +5682,10 @@
         <v>326</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="K73" t="s" s="0">
         <v>264</v>
@@ -5666,10 +5732,10 @@
         <v>327</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="K74" t="s" s="0">
         <v>264</v>
@@ -5716,10 +5782,10 @@
         <v>328</v>
       </c>
       <c r="I75" t="s" s="0">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="J75" t="s" s="0">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="K75" t="s" s="0">
         <v>264</v>
@@ -5764,6 +5830,12 @@
       </c>
       <c r="H76" s="3" t="s">
         <v>329</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>628</v>
       </c>
       <c r="K76" t="s" s="0">
         <v>264</v>
@@ -5860,10 +5932,10 @@
         <v>331</v>
       </c>
       <c r="I79" t="s" s="0">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="K79" t="s" s="0">
         <v>264</v>
@@ -5907,13 +5979,13 @@
         <v>363</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="I80" t="s" s="0">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="K80" t="s" s="0">
         <v>264</v>
@@ -5960,10 +6032,10 @@
         <v>333</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="J81" t="s" s="0">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="K81" t="s" s="0">
         <v>264</v>
@@ -6010,10 +6082,10 @@
         <v>334</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="K82" t="s" s="0">
         <v>264</v>
@@ -6101,10 +6173,10 @@
         <v>336</v>
       </c>
       <c r="I84" t="s" s="0">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="J84" t="s" s="0">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="K84" t="s" s="0">
         <v>264</v>
@@ -6156,12 +6228,6 @@
       <c r="H86" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="I86" t="s" s="0">
-        <v>630</v>
-      </c>
-      <c r="J86" t="s" s="0">
-        <v>631</v>
-      </c>
       <c r="K86" t="s" s="0">
         <v>264</v>
       </c>
@@ -6207,10 +6273,10 @@
         <v>338</v>
       </c>
       <c r="I87" t="s" s="0">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="J87" t="s" s="0">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K87" t="s" s="0">
         <v>264</v>
@@ -6257,10 +6323,10 @@
         <v>339</v>
       </c>
       <c r="I88" t="s" s="0">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="K88" t="s" s="0">
         <v>264</v>
@@ -6307,10 +6373,10 @@
         <v>340</v>
       </c>
       <c r="I89" t="s" s="0">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="K89" t="s" s="0">
         <v>264</v>
@@ -6353,6 +6419,12 @@
       <c r="H90" s="3" t="s">
         <v>341</v>
       </c>
+      <c r="I90" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>647</v>
+      </c>
       <c r="K90" t="s" s="0">
         <v>264</v>
       </c>
@@ -6398,10 +6470,10 @@
         <v>342</v>
       </c>
       <c r="I91" t="s" s="0">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="K91" t="s" s="0">
         <v>264</v>
@@ -6448,10 +6520,10 @@
         <v>343</v>
       </c>
       <c r="I92" t="s" s="0">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="J92" t="s" s="0">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="K92" t="s" s="0">
         <v>264</v>
@@ -6498,10 +6570,10 @@
         <v>344</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="J93" t="s" s="0">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="K93" t="s" s="0">
         <v>264</v>
@@ -6590,10 +6662,10 @@
         <v>346</v>
       </c>
       <c r="I95" t="s" s="0">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="J95" t="s" s="0">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="K95" t="s" s="0">
         <v>264</v>
@@ -6673,13 +6745,13 @@
         <v>373</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="I102" t="s" s="0">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="J102" t="s" s="0">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="K102" t="s" s="0">
         <v>264</v>
@@ -6723,13 +6795,13 @@
         <v>374</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="I103" t="s" s="0">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="J103" t="s" s="0">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="K103" t="s" s="0">
         <v>264</v>
@@ -6776,10 +6848,10 @@
         <v>349</v>
       </c>
       <c r="I104" t="s" s="0">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="J104" t="s" s="0">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="K104" t="s" s="0">
         <v>264</v>
@@ -6867,13 +6939,13 @@
         <v>381</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="J106" t="s" s="0">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="K106" t="s" s="0">
         <v>264</v>
@@ -7039,6 +7111,12 @@
       <c r="H127" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="I127" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="J127" t="s" s="0">
+        <v>668</v>
+      </c>
       <c r="K127" t="s" s="0">
         <v>264</v>
       </c>
@@ -7081,13 +7159,13 @@
         <v>369</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="I128" t="s" s="0">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>264</v>
@@ -7134,10 +7212,10 @@
         <v>354</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="K129" t="s" s="0">
         <v>264</v>
@@ -7183,6 +7261,12 @@
       <c r="H130" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="I130" t="s" s="0">
+        <v>674</v>
+      </c>
+      <c r="J130" t="s" s="0">
+        <v>675</v>
+      </c>
       <c r="K130" t="s" s="0">
         <v>264</v>
       </c>
@@ -7228,10 +7312,10 @@
         <v>356</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="J131" t="s" s="0">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="K131" t="s" s="0">
         <v>264</v>
@@ -7278,10 +7362,10 @@
         <v>357</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="K132" t="s" s="0">
         <v>264</v>
@@ -7328,10 +7412,10 @@
         <v>358</v>
       </c>
       <c r="I133" t="s" s="0">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="J133" t="s" s="0">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="K133" t="s" s="0">
         <v>264</v>
@@ -7378,10 +7462,10 @@
         <v>359</v>
       </c>
       <c r="I134" t="s" s="0">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="J134" t="s" s="0">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="K134" t="s" s="0">
         <v>264</v>
@@ -7470,10 +7554,10 @@
         <v>361</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="J136" t="s" s="0">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="K136" t="s" s="0">
         <v>264</v>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="503">
   <si>
     <t>Nombre</t>
   </si>
@@ -1546,555 +1546,6 @@
   </si>
   <si>
     <t>3 1</t>
-  </si>
-  <si>
-    <t>09548416N</t>
-  </si>
-  <si>
-    <t>DK7331645124473461205164</t>
-  </si>
-  <si>
-    <t>JMD00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES8265614874165615445616</t>
-  </si>
-  <si>
-    <t>RFM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>RO8832569523016220165156</t>
-  </si>
-  <si>
-    <t>ALM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DE7424561937521546497521</t>
-  </si>
-  <si>
-    <t>ALN00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>MC6436520125638451012515</t>
-  </si>
-  <si>
-    <t>RGO00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES0721584976902154655487</t>
-  </si>
-  <si>
-    <t>SDO00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>GR9420125003305201112544</t>
-  </si>
-  <si>
-    <t>VDO00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES2821651484690980008984</t>
-  </si>
-  <si>
-    <t>VBP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>FI5620960043043554600000</t>
-  </si>
-  <si>
-    <t>ABP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES7921564975243245467995</t>
-  </si>
-  <si>
-    <t>MAP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>LT8032566221522587754554</t>
-  </si>
-  <si>
-    <t>ACP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>EE2023215465315456411515</t>
-  </si>
-  <si>
-    <t>LBP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>SM2125894363475485700145</t>
-  </si>
-  <si>
-    <t>LBR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9596431245118150005156</t>
-  </si>
-  <si>
-    <t>SBR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>AT6825030000114574745458</t>
-  </si>
-  <si>
-    <t>AGR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>IT8915953684811254695203</t>
-  </si>
-  <si>
-    <t>DGR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9020960043023096200000</t>
-  </si>
-  <si>
-    <t>PGS00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DK5800750184310702510000</t>
-  </si>
-  <si>
-    <t>CIS00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES5023455254943263234457</t>
-  </si>
-  <si>
-    <t>MQ00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>GR4920910936583000000000</t>
-  </si>
-  <si>
-    <t>BV00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES3720960043032159000000</t>
-  </si>
-  <si>
-    <t>PP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DE5512669681115112121210</t>
-  </si>
-  <si>
-    <t>PC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES2956187775315550000651</t>
-  </si>
-  <si>
-    <t>GMM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES0425516848021156151054</t>
-  </si>
-  <si>
-    <t>CGM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>PT5764578946740051516490</t>
-  </si>
-  <si>
-    <t>GMM01@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES4534698752714600549403</t>
-  </si>
-  <si>
-    <t>CSN00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES2766649444162310000255</t>
-  </si>
-  <si>
-    <t>ALO00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>FR5623185484465641685100</t>
-  </si>
-  <si>
-    <t>GMM02@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DE5021508149175421346497</t>
-  </si>
-  <si>
-    <t>TCP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DE6721346154503164978451</t>
-  </si>
-  <si>
-    <t>CCP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES7225187786311225455548</t>
-  </si>
-  <si>
-    <t>CAP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES4723164897642213030615</t>
-  </si>
-  <si>
-    <t>SFP00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES2396536214865214585214</t>
-  </si>
-  <si>
-    <t>ELR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES6885461325251978750005</t>
-  </si>
-  <si>
-    <t>DLR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>FI5024587946032003165464</t>
-  </si>
-  <si>
-    <t>HAR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES5020960043073071400000</t>
-  </si>
-  <si>
-    <t>SPR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES8220960043042158800000</t>
-  </si>
-  <si>
-    <t>GPR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES7521654587985156484454</t>
-  </si>
-  <si>
-    <t>SAS00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES3251651681961210656510</t>
-  </si>
-  <si>
-    <t>BFS00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES5566552211148855332200</t>
-  </si>
-  <si>
-    <t>DFG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>GB9720910936583000000000</t>
-  </si>
-  <si>
-    <t>GMG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DE9301821135910205540000</t>
-  </si>
-  <si>
-    <t>MLG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DE7822631245526916432102</t>
-  </si>
-  <si>
-    <t>IAG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES2120960043043075700000</t>
-  </si>
-  <si>
-    <t>IAG01@Agua2024.com</t>
-  </si>
-  <si>
-    <t>SM7325635478321002541225</t>
-  </si>
-  <si>
-    <t>GPG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES6832154697195423121000</t>
-  </si>
-  <si>
-    <t>RGG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>GB5520008521528775113366</t>
-  </si>
-  <si>
-    <t>AFG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES8020960043033000100000</t>
-  </si>
-  <si>
-    <t>APM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>GB0836585214290025478551</t>
-  </si>
-  <si>
-    <t>GMM03@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9012548523465214585214</t>
-  </si>
-  <si>
-    <t>ALM01@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES6931624561042546920007</t>
-  </si>
-  <si>
-    <t>LDM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES1436154231712500312566</t>
-  </si>
-  <si>
-    <t>AD00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES8244875664127231645789</t>
-  </si>
-  <si>
-    <t>LR00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES1633620012937852100256</t>
-  </si>
-  <si>
-    <t>SBG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES1933218885441445121022</t>
-  </si>
-  <si>
-    <t>AFG01@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES8462581542713690044508</t>
-  </si>
-  <si>
-    <t>DGG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES3925165151118666365100</t>
-  </si>
-  <si>
-    <t>ROG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>SOG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>PT3536952365020014425254</t>
-  </si>
-  <si>
-    <t>VVG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9565168874641561561500</t>
-  </si>
-  <si>
-    <t>VMG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES3220960583831234500000</t>
-  </si>
-  <si>
-    <t>MBG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES7221416325811510005514</t>
-  </si>
-  <si>
-    <t>CBG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>LU0932628484504115151115</t>
-  </si>
-  <si>
-    <t>MSH00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES8163516541828944000984</t>
-  </si>
-  <si>
-    <t>SDM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>23658965274585223202</t>
-  </si>
-  <si>
-    <t>ES6223658965274585223202</t>
-  </si>
-  <si>
-    <t>EGM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>FI6132658012367712548745</t>
-  </si>
-  <si>
-    <t>GPM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES7223652365142254222000</t>
-  </si>
-  <si>
-    <t>EAM00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9232584216971684051000</t>
-  </si>
-  <si>
-    <t>MG00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>LT9321856333126985542360</t>
-  </si>
-  <si>
-    <t>BDC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES5736245978133245679001</t>
-  </si>
-  <si>
-    <t>NGC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES7631245164156597845124</t>
-  </si>
-  <si>
-    <t>MLC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>SM4423221158252545471411</t>
-  </si>
-  <si>
-    <t>MH00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>SE6832574512085411002255</t>
-  </si>
-  <si>
-    <t>MLC01@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES4420960043013468900000</t>
-  </si>
-  <si>
-    <t>CFC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES5631215643855060225021</t>
-  </si>
-  <si>
-    <t>CGC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES1665165654918886005001</t>
-  </si>
-  <si>
-    <t>KSC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>65645150865168448896</t>
-  </si>
-  <si>
-    <t>AT8365645150865168448896</t>
-  </si>
-  <si>
-    <t>MHC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>26551681807651415636</t>
-  </si>
-  <si>
-    <t>IT3526551681807651415636</t>
-  </si>
-  <si>
-    <t>CLD00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>HU2399558741836555551120</t>
-  </si>
-  <si>
-    <t>MFD00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>51556584221251000254</t>
-  </si>
-  <si>
-    <t>IE6851556584221251000254</t>
-  </si>
-  <si>
-    <t>GMM04@Agua2024.com</t>
-  </si>
-  <si>
-    <t>DK9032541112811220000588</t>
-  </si>
-  <si>
-    <t>IVC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>62541122421110105611</t>
-  </si>
-  <si>
-    <t>LT9362541122421110105611</t>
-  </si>
-  <si>
-    <t>DMC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES6855065688761051056105</t>
-  </si>
-  <si>
-    <t>EBC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES7426221011628048788896</t>
-  </si>
-  <si>
-    <t>NBC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9712548521518742146695</t>
-  </si>
-  <si>
-    <t>MSC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9001826530120201560000</t>
-  </si>
-  <si>
-    <t>MDC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES9021651651812511133551</t>
-  </si>
-  <si>
-    <t>MFC00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>ES6851651487910005118185</t>
-  </si>
-  <si>
-    <t>CDD00@Agua2024.com</t>
-  </si>
-  <si>
-    <t>AT3122515651915640081000</t>
-  </si>
-  <si>
-    <t>HPD00@Agua2024.com</t>
   </si>
 </sst>
 </file>
@@ -2564,12 +2015,6 @@
       <c r="H2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>504</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>505</v>
-      </c>
       <c r="K2" t="s" s="0">
         <v>264</v>
       </c>
@@ -2614,12 +2059,6 @@
       <c r="H3" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>506</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>507</v>
-      </c>
       <c r="K3" t="s" s="0">
         <v>264</v>
       </c>
@@ -2664,12 +2103,6 @@
       <c r="H4" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>508</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>509</v>
-      </c>
       <c r="K4" t="s" s="0">
         <v>264</v>
       </c>
@@ -2714,12 +2147,6 @@
       <c r="H5" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>510</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>511</v>
-      </c>
       <c r="K5" t="s" s="0">
         <v>264</v>
       </c>
@@ -2764,12 +2191,6 @@
       <c r="H6" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="I6" t="s" s="0">
-        <v>512</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>513</v>
-      </c>
       <c r="K6" t="s" s="0">
         <v>264</v>
       </c>
@@ -2814,12 +2235,6 @@
       <c r="H7" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I7" t="s" s="0">
-        <v>514</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>515</v>
-      </c>
       <c r="K7" t="s" s="0">
         <v>264</v>
       </c>
@@ -2864,12 +2279,6 @@
       <c r="H8" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="I8" t="s" s="0">
-        <v>516</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>517</v>
-      </c>
       <c r="K8" t="s" s="0">
         <v>264</v>
       </c>
@@ -2914,12 +2323,6 @@
       <c r="H9" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I9" t="s" s="0">
-        <v>518</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>519</v>
-      </c>
       <c r="K9" t="s" s="0">
         <v>264</v>
       </c>
@@ -2964,12 +2367,6 @@
       <c r="H10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>520</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>521</v>
-      </c>
       <c r="K10" t="s" s="0">
         <v>264</v>
       </c>
@@ -3014,12 +2411,6 @@
       <c r="H11" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="I11" t="s" s="0">
-        <v>522</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>523</v>
-      </c>
       <c r="K11" t="s" s="0">
         <v>264</v>
       </c>
@@ -3064,12 +2455,6 @@
       <c r="H12" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I12" t="s" s="0">
-        <v>524</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>525</v>
-      </c>
       <c r="K12" t="s" s="0">
         <v>264</v>
       </c>
@@ -3113,12 +2498,6 @@
       </c>
       <c r="H13" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>526</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>527</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>264</v>
@@ -3214,12 +2593,6 @@
       <c r="H16" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="I16" t="s" s="0">
-        <v>528</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>529</v>
-      </c>
       <c r="K16" t="s" s="0">
         <v>264</v>
       </c>
@@ -3264,12 +2637,6 @@
       <c r="H17" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I17" t="s" s="0">
-        <v>530</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>531</v>
-      </c>
       <c r="K17" t="s" s="0">
         <v>264</v>
       </c>
@@ -3300,7 +2667,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>393</v>
@@ -3313,12 +2680,6 @@
       </c>
       <c r="H18" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="I18" t="s" s="0">
-        <v>532</v>
-      </c>
-      <c r="J18" t="s" s="0">
-        <v>533</v>
       </c>
       <c r="K18" t="s" s="0">
         <v>264</v>
@@ -3364,12 +2725,6 @@
       <c r="H19" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="I19" t="s" s="0">
-        <v>534</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>535</v>
-      </c>
       <c r="K19" t="s" s="0">
         <v>264</v>
       </c>
@@ -3400,7 +2755,7 @@
         <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>392</v>
@@ -3413,12 +2768,6 @@
       </c>
       <c r="H20" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="I20" t="s" s="0">
-        <v>536</v>
-      </c>
-      <c r="J20" t="s" s="0">
-        <v>537</v>
       </c>
       <c r="K20" t="s" s="0">
         <v>264</v>
@@ -3464,12 +2813,6 @@
       <c r="H21" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I21" t="s" s="0">
-        <v>538</v>
-      </c>
-      <c r="J21" t="s" s="0">
-        <v>539</v>
-      </c>
       <c r="K21" t="s" s="0">
         <v>264</v>
       </c>
@@ -3511,12 +2854,6 @@
       <c r="H22" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="I22" t="s" s="0">
-        <v>540</v>
-      </c>
-      <c r="J22" t="s" s="0">
-        <v>541</v>
-      </c>
       <c r="K22" t="s" s="0">
         <v>264</v>
       </c>
@@ -3558,12 +2895,6 @@
       <c r="H23" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I23" t="s" s="0">
-        <v>542</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>543</v>
-      </c>
       <c r="K23" t="s" s="0">
         <v>264</v>
       </c>
@@ -3605,12 +2936,6 @@
       <c r="H24" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="I24" t="s" s="0">
-        <v>544</v>
-      </c>
-      <c r="J24" t="s" s="0">
-        <v>545</v>
-      </c>
       <c r="K24" t="s" s="0">
         <v>264</v>
       </c>
@@ -3651,12 +2976,6 @@
       </c>
       <c r="H25" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="I25" t="s" s="0">
-        <v>546</v>
-      </c>
-      <c r="J25" t="s" s="0">
-        <v>547</v>
       </c>
       <c r="K25" t="s" s="0">
         <v>264</v>
@@ -3710,12 +3029,6 @@
       <c r="H27" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="I27" t="s" s="0">
-        <v>548</v>
-      </c>
-      <c r="J27" t="s" s="0">
-        <v>549</v>
-      </c>
       <c r="K27" t="s" s="0">
         <v>264</v>
       </c>
@@ -3760,12 +3073,6 @@
       <c r="H28" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="I28" t="s" s="0">
-        <v>550</v>
-      </c>
-      <c r="J28" t="s" s="0">
-        <v>551</v>
-      </c>
       <c r="K28" t="s" s="0">
         <v>264</v>
       </c>
@@ -3810,12 +3117,6 @@
       <c r="H29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="I29" t="s" s="0">
-        <v>552</v>
-      </c>
-      <c r="J29" t="s" s="0">
-        <v>553</v>
-      </c>
       <c r="K29" t="s" s="0">
         <v>264</v>
       </c>
@@ -3860,12 +3161,6 @@
       <c r="H30" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="I30" t="s" s="0">
-        <v>554</v>
-      </c>
-      <c r="J30" t="s" s="0">
-        <v>555</v>
-      </c>
       <c r="K30" t="s" s="0">
         <v>264</v>
       </c>
@@ -3910,12 +3205,6 @@
       <c r="H31" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="I31" t="s" s="0">
-        <v>556</v>
-      </c>
-      <c r="J31" t="s" s="0">
-        <v>557</v>
-      </c>
       <c r="K31" t="s" s="0">
         <v>264</v>
       </c>
@@ -3959,12 +3248,6 @@
       </c>
       <c r="H32" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="I32" t="s" s="0">
-        <v>558</v>
-      </c>
-      <c r="J32" t="s" s="0">
-        <v>559</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>264</v>
@@ -4028,12 +3311,6 @@
       <c r="H36" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="I36" t="s" s="0">
-        <v>560</v>
-      </c>
-      <c r="J36" t="s" s="0">
-        <v>561</v>
-      </c>
       <c r="K36" t="s" s="0">
         <v>264</v>
       </c>
@@ -4078,12 +3355,6 @@
       <c r="H37" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="I37" t="s" s="0">
-        <v>562</v>
-      </c>
-      <c r="J37" t="s" s="0">
-        <v>563</v>
-      </c>
       <c r="K37" t="s" s="0">
         <v>264</v>
       </c>
@@ -4114,7 +3385,7 @@
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>394</v>
@@ -4127,12 +3398,6 @@
       </c>
       <c r="H38" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="I38" t="s" s="0">
-        <v>564</v>
-      </c>
-      <c r="J38" t="s" s="0">
-        <v>565</v>
       </c>
       <c r="K38" t="s" s="0">
         <v>264</v>
@@ -4178,12 +3443,6 @@
       <c r="H39" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="I39" t="s" s="0">
-        <v>566</v>
-      </c>
-      <c r="J39" t="s" s="0">
-        <v>567</v>
-      </c>
       <c r="K39" t="s" s="0">
         <v>264</v>
       </c>
@@ -4228,12 +3487,6 @@
       <c r="H40" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="I40" t="s" s="0">
-        <v>568</v>
-      </c>
-      <c r="J40" t="s" s="0">
-        <v>569</v>
-      </c>
       <c r="K40" t="s" s="0">
         <v>264</v>
       </c>
@@ -4278,12 +3531,6 @@
       <c r="H41" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="I41" t="s" s="0">
-        <v>570</v>
-      </c>
-      <c r="J41" t="s" s="0">
-        <v>571</v>
-      </c>
       <c r="K41" t="s" s="0">
         <v>264</v>
       </c>
@@ -4314,7 +3561,7 @@
         <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>397</v>
@@ -4327,12 +3574,6 @@
       </c>
       <c r="H42" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="I42" t="s" s="0">
-        <v>572</v>
-      </c>
-      <c r="J42" t="s" s="0">
-        <v>573</v>
       </c>
       <c r="K42" t="s" s="0">
         <v>264</v>
@@ -4378,12 +3619,6 @@
       <c r="H43" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="I43" t="s" s="0">
-        <v>574</v>
-      </c>
-      <c r="J43" t="s" s="0">
-        <v>575</v>
-      </c>
       <c r="K43" t="s" s="0">
         <v>264</v>
       </c>
@@ -4428,12 +3663,6 @@
       <c r="H44" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="I44" t="s" s="0">
-        <v>576</v>
-      </c>
-      <c r="J44" t="s" s="0">
-        <v>577</v>
-      </c>
       <c r="K44" t="s" s="0">
         <v>264</v>
       </c>
@@ -4478,12 +3707,6 @@
       <c r="H45" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="I45" t="s" s="0">
-        <v>578</v>
-      </c>
-      <c r="J45" t="s" s="0">
-        <v>579</v>
-      </c>
       <c r="K45" t="s" s="0">
         <v>264</v>
       </c>
@@ -4528,12 +3751,6 @@
       <c r="H46" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I46" t="s" s="0">
-        <v>580</v>
-      </c>
-      <c r="J46" t="s" s="0">
-        <v>581</v>
-      </c>
       <c r="K46" t="s" s="0">
         <v>264</v>
       </c>
@@ -4578,12 +3795,6 @@
       <c r="H47" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="I47" t="s" s="0">
-        <v>582</v>
-      </c>
-      <c r="J47" t="s" s="0">
-        <v>583</v>
-      </c>
       <c r="K47" t="s" s="0">
         <v>264</v>
       </c>
@@ -4628,12 +3839,6 @@
       <c r="H48" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="I48" t="s" s="0">
-        <v>584</v>
-      </c>
-      <c r="J48" t="s" s="0">
-        <v>585</v>
-      </c>
       <c r="K48" t="s" s="0">
         <v>264</v>
       </c>
@@ -4678,12 +3883,6 @@
       <c r="H49" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I49" t="s" s="0">
-        <v>586</v>
-      </c>
-      <c r="J49" t="s" s="0">
-        <v>587</v>
-      </c>
       <c r="K49" t="s" s="0">
         <v>264</v>
       </c>
@@ -4728,12 +3927,6 @@
       <c r="H50" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="I50" t="s" s="0">
-        <v>588</v>
-      </c>
-      <c r="J50" t="s" s="0">
-        <v>589</v>
-      </c>
       <c r="K50" t="s" s="0">
         <v>264</v>
       </c>
@@ -4778,12 +3971,6 @@
       <c r="H51" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I51" t="s" s="0">
-        <v>590</v>
-      </c>
-      <c r="J51" t="s" s="0">
-        <v>591</v>
-      </c>
       <c r="K51" t="s" s="0">
         <v>264</v>
       </c>
@@ -4828,12 +4015,6 @@
       <c r="H52" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I52" t="s" s="0">
-        <v>592</v>
-      </c>
-      <c r="J52" t="s" s="0">
-        <v>593</v>
-      </c>
       <c r="K52" t="s" s="0">
         <v>264</v>
       </c>
@@ -4878,12 +4059,6 @@
       <c r="H53" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I53" t="s" s="0">
-        <v>594</v>
-      </c>
-      <c r="J53" t="s" s="0">
-        <v>595</v>
-      </c>
       <c r="K53" t="s" s="0">
         <v>264</v>
       </c>
@@ -4971,12 +4146,6 @@
       </c>
       <c r="H55" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="I55" t="s" s="0">
-        <v>596</v>
-      </c>
-      <c r="J55" t="s" s="0">
-        <v>597</v>
       </c>
       <c r="K55" t="s" s="0">
         <v>264</v>
@@ -5046,12 +4215,6 @@
       <c r="H60" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I60" t="s" s="0">
-        <v>598</v>
-      </c>
-      <c r="J60" t="s" s="0">
-        <v>599</v>
-      </c>
       <c r="K60" t="s" s="0">
         <v>264</v>
       </c>
@@ -5096,12 +4259,6 @@
       <c r="H61" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I61" t="s" s="0">
-        <v>600</v>
-      </c>
-      <c r="J61" t="s" s="0">
-        <v>601</v>
-      </c>
       <c r="K61" t="s" s="0">
         <v>264</v>
       </c>
@@ -5146,12 +4303,6 @@
       <c r="H62" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I62" t="s" s="0">
-        <v>602</v>
-      </c>
-      <c r="J62" t="s" s="0">
-        <v>603</v>
-      </c>
       <c r="K62" t="s" s="0">
         <v>264</v>
       </c>
@@ -5196,12 +4347,6 @@
       <c r="H63" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I63" t="s" s="0">
-        <v>604</v>
-      </c>
-      <c r="J63" t="s" s="0">
-        <v>605</v>
-      </c>
       <c r="K63" t="s" s="0">
         <v>264</v>
       </c>
@@ -5243,12 +4388,6 @@
       <c r="H64" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I64" t="s" s="0">
-        <v>606</v>
-      </c>
-      <c r="J64" t="s" s="0">
-        <v>607</v>
-      </c>
       <c r="K64" t="s" s="0">
         <v>264</v>
       </c>
@@ -5290,12 +4429,6 @@
       <c r="H65" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I65" t="s" s="0">
-        <v>608</v>
-      </c>
-      <c r="J65" t="s" s="0">
-        <v>609</v>
-      </c>
       <c r="K65" t="s" s="0">
         <v>264</v>
       </c>
@@ -5367,7 +4500,7 @@
         <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>405</v>
@@ -5380,12 +4513,6 @@
       </c>
       <c r="H67" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="I67" t="s" s="0">
-        <v>610</v>
-      </c>
-      <c r="J67" t="s" s="0">
-        <v>611</v>
       </c>
       <c r="K67" t="s" s="0">
         <v>264</v>
@@ -5431,12 +4558,6 @@
       <c r="H68" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I68" t="s" s="0">
-        <v>612</v>
-      </c>
-      <c r="J68" t="s" s="0">
-        <v>613</v>
-      </c>
       <c r="K68" t="s" s="0">
         <v>264</v>
       </c>
@@ -5481,12 +4602,6 @@
       <c r="H69" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I69" t="s" s="0">
-        <v>614</v>
-      </c>
-      <c r="J69" t="s" s="0">
-        <v>615</v>
-      </c>
       <c r="K69" t="s" s="0">
         <v>264</v>
       </c>
@@ -5531,12 +4646,6 @@
       <c r="H70" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I70" t="s" s="0">
-        <v>616</v>
-      </c>
-      <c r="J70" t="s" s="0">
-        <v>617</v>
-      </c>
       <c r="K70" t="s" s="0">
         <v>264</v>
       </c>
@@ -5581,12 +4690,6 @@
       <c r="H71" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I71" t="s" s="0">
-        <v>598</v>
-      </c>
-      <c r="J71" t="s" s="0">
-        <v>618</v>
-      </c>
       <c r="K71" t="s" s="0">
         <v>264</v>
       </c>
@@ -5631,12 +4734,6 @@
       <c r="H72" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I72" t="s" s="0">
-        <v>619</v>
-      </c>
-      <c r="J72" t="s" s="0">
-        <v>620</v>
-      </c>
       <c r="K72" t="s" s="0">
         <v>264</v>
       </c>
@@ -5681,12 +4778,6 @@
       <c r="H73" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="I73" t="s" s="0">
-        <v>621</v>
-      </c>
-      <c r="J73" t="s" s="0">
-        <v>622</v>
-      </c>
       <c r="K73" t="s" s="0">
         <v>264</v>
       </c>
@@ -5731,12 +4822,6 @@
       <c r="H74" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="I74" t="s" s="0">
-        <v>623</v>
-      </c>
-      <c r="J74" t="s" s="0">
-        <v>624</v>
-      </c>
       <c r="K74" t="s" s="0">
         <v>264</v>
       </c>
@@ -5781,12 +4866,6 @@
       <c r="H75" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I75" t="s" s="0">
-        <v>625</v>
-      </c>
-      <c r="J75" t="s" s="0">
-        <v>626</v>
-      </c>
       <c r="K75" t="s" s="0">
         <v>264</v>
       </c>
@@ -5830,12 +4909,6 @@
       </c>
       <c r="H76" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="I76" t="s" s="0">
-        <v>627</v>
-      </c>
-      <c r="J76" t="s" s="0">
-        <v>628</v>
       </c>
       <c r="K76" t="s" s="0">
         <v>264</v>
@@ -5931,12 +5004,6 @@
       <c r="H79" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="I79" t="s" s="0">
-        <v>629</v>
-      </c>
-      <c r="J79" t="s" s="0">
-        <v>630</v>
-      </c>
       <c r="K79" t="s" s="0">
         <v>264</v>
       </c>
@@ -5979,13 +5046,7 @@
         <v>363</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="I80" t="s" s="0">
-        <v>632</v>
-      </c>
-      <c r="J80" t="s" s="0">
-        <v>633</v>
+        <v>332</v>
       </c>
       <c r="K80" t="s" s="0">
         <v>264</v>
@@ -6031,12 +5092,6 @@
       <c r="H81" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="I81" t="s" s="0">
-        <v>634</v>
-      </c>
-      <c r="J81" t="s" s="0">
-        <v>635</v>
-      </c>
       <c r="K81" t="s" s="0">
         <v>264</v>
       </c>
@@ -6081,12 +5136,6 @@
       <c r="H82" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="I82" t="s" s="0">
-        <v>636</v>
-      </c>
-      <c r="J82" t="s" s="0">
-        <v>637</v>
-      </c>
       <c r="K82" t="s" s="0">
         <v>264</v>
       </c>
@@ -6171,12 +5220,6 @@
       </c>
       <c r="H84" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="I84" t="s" s="0">
-        <v>638</v>
-      </c>
-      <c r="J84" t="s" s="0">
-        <v>639</v>
       </c>
       <c r="K84" t="s" s="0">
         <v>264</v>
@@ -6272,12 +5315,6 @@
       <c r="H87" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="I87" t="s" s="0">
-        <v>640</v>
-      </c>
-      <c r="J87" t="s" s="0">
-        <v>641</v>
-      </c>
       <c r="K87" t="s" s="0">
         <v>264</v>
       </c>
@@ -6322,12 +5359,6 @@
       <c r="H88" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I88" t="s" s="0">
-        <v>642</v>
-      </c>
-      <c r="J88" t="s" s="0">
-        <v>643</v>
-      </c>
       <c r="K88" t="s" s="0">
         <v>264</v>
       </c>
@@ -6372,12 +5403,6 @@
       <c r="H89" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="I89" t="s" s="0">
-        <v>644</v>
-      </c>
-      <c r="J89" t="s" s="0">
-        <v>645</v>
-      </c>
       <c r="K89" t="s" s="0">
         <v>264</v>
       </c>
@@ -6419,12 +5444,6 @@
       <c r="H90" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="I90" t="s" s="0">
-        <v>646</v>
-      </c>
-      <c r="J90" t="s" s="0">
-        <v>647</v>
-      </c>
       <c r="K90" t="s" s="0">
         <v>264</v>
       </c>
@@ -6469,12 +5488,6 @@
       <c r="H91" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="I91" t="s" s="0">
-        <v>648</v>
-      </c>
-      <c r="J91" t="s" s="0">
-        <v>649</v>
-      </c>
       <c r="K91" t="s" s="0">
         <v>264</v>
       </c>
@@ -6519,12 +5532,6 @@
       <c r="H92" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I92" t="s" s="0">
-        <v>650</v>
-      </c>
-      <c r="J92" t="s" s="0">
-        <v>651</v>
-      </c>
       <c r="K92" t="s" s="0">
         <v>264</v>
       </c>
@@ -6569,12 +5576,6 @@
       <c r="H93" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="I93" t="s" s="0">
-        <v>652</v>
-      </c>
-      <c r="J93" t="s" s="0">
-        <v>653</v>
-      </c>
       <c r="K93" t="s" s="0">
         <v>264</v>
       </c>
@@ -6660,12 +5661,6 @@
       </c>
       <c r="H95" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="I95" t="s" s="0">
-        <v>654</v>
-      </c>
-      <c r="J95" t="s" s="0">
-        <v>655</v>
       </c>
       <c r="K95" t="s" s="0">
         <v>264</v>
@@ -6745,13 +5740,7 @@
         <v>373</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="I102" t="s" s="0">
-        <v>657</v>
-      </c>
-      <c r="J102" t="s" s="0">
-        <v>658</v>
+        <v>347</v>
       </c>
       <c r="K102" t="s" s="0">
         <v>264</v>
@@ -6795,13 +5784,7 @@
         <v>374</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="I103" t="s" s="0">
-        <v>660</v>
-      </c>
-      <c r="J103" t="s" s="0">
-        <v>661</v>
+        <v>348</v>
       </c>
       <c r="K103" t="s" s="0">
         <v>264</v>
@@ -6847,12 +5830,6 @@
       <c r="H104" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="I104" t="s" s="0">
-        <v>662</v>
-      </c>
-      <c r="J104" t="s" s="0">
-        <v>663</v>
-      </c>
       <c r="K104" t="s" s="0">
         <v>264</v>
       </c>
@@ -6939,13 +5916,7 @@
         <v>381</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="I106" t="s" s="0">
-        <v>665</v>
-      </c>
-      <c r="J106" t="s" s="0">
-        <v>666</v>
+        <v>351</v>
       </c>
       <c r="K106" t="s" s="0">
         <v>264</v>
@@ -7111,12 +6082,6 @@
       <c r="H127" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="I127" t="s" s="0">
-        <v>667</v>
-      </c>
-      <c r="J127" t="s" s="0">
-        <v>668</v>
-      </c>
       <c r="K127" t="s" s="0">
         <v>264</v>
       </c>
@@ -7159,13 +6124,7 @@
         <v>369</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="I128" t="s" s="0">
-        <v>670</v>
-      </c>
-      <c r="J128" t="s" s="0">
-        <v>671</v>
+        <v>353</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>264</v>
@@ -7211,12 +6170,6 @@
       <c r="H129" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="I129" t="s" s="0">
-        <v>672</v>
-      </c>
-      <c r="J129" t="s" s="0">
-        <v>673</v>
-      </c>
       <c r="K129" t="s" s="0">
         <v>264</v>
       </c>
@@ -7261,12 +6214,6 @@
       <c r="H130" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="I130" t="s" s="0">
-        <v>674</v>
-      </c>
-      <c r="J130" t="s" s="0">
-        <v>675</v>
-      </c>
       <c r="K130" t="s" s="0">
         <v>264</v>
       </c>
@@ -7311,12 +6258,6 @@
       <c r="H131" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="I131" t="s" s="0">
-        <v>676</v>
-      </c>
-      <c r="J131" t="s" s="0">
-        <v>677</v>
-      </c>
       <c r="K131" t="s" s="0">
         <v>264</v>
       </c>
@@ -7361,12 +6302,6 @@
       <c r="H132" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I132" t="s" s="0">
-        <v>678</v>
-      </c>
-      <c r="J132" t="s" s="0">
-        <v>679</v>
-      </c>
       <c r="K132" t="s" s="0">
         <v>264</v>
       </c>
@@ -7411,12 +6346,6 @@
       <c r="H133" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="I133" t="s" s="0">
-        <v>680</v>
-      </c>
-      <c r="J133" t="s" s="0">
-        <v>681</v>
-      </c>
       <c r="K133" t="s" s="0">
         <v>264</v>
       </c>
@@ -7461,12 +6390,6 @@
       <c r="H134" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="I134" t="s" s="0">
-        <v>682</v>
-      </c>
-      <c r="J134" t="s" s="0">
-        <v>683</v>
-      </c>
       <c r="K134" t="s" s="0">
         <v>264</v>
       </c>
@@ -7552,12 +6475,6 @@
       </c>
       <c r="H136" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="I136" t="s" s="0">
-        <v>684</v>
-      </c>
-      <c r="J136" t="s" s="0">
-        <v>685</v>
       </c>
       <c r="K136" t="s" s="0">
         <v>264</v>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hds_8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8DDBFF-7D5D-407E-92DF-76DF71E9BA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA42F524-A6D0-442B-A471-5D24016F1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contribuyente" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="689">
   <si>
     <t>Nombre</t>
   </si>
@@ -1546,6 +1546,564 @@
   </si>
   <si>
     <t>3 1</t>
+  </si>
+  <si>
+    <t>PYME</t>
+  </si>
+  <si>
+    <t>Todo en una linea</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>09548416N</t>
+  </si>
+  <si>
+    <t>DK7331645124473461205164</t>
+  </si>
+  <si>
+    <t>JMD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8265614874165615445616</t>
+  </si>
+  <si>
+    <t>RFM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>RO8832569523016220165156</t>
+  </si>
+  <si>
+    <t>ALM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE7424561937521546497521</t>
+  </si>
+  <si>
+    <t>ALN00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>MC6436520125638451012515</t>
+  </si>
+  <si>
+    <t>RGO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES0721584976902154655487</t>
+  </si>
+  <si>
+    <t>SDO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GR9420125003305201112544</t>
+  </si>
+  <si>
+    <t>VDO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2821651484690980008984</t>
+  </si>
+  <si>
+    <t>VBP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>FI5620960043043554600000</t>
+  </si>
+  <si>
+    <t>ABP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7921564975243245467995</t>
+  </si>
+  <si>
+    <t>MAP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>LT8032566221522587754554</t>
+  </si>
+  <si>
+    <t>ACP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>EE2023215465315456411515</t>
+  </si>
+  <si>
+    <t>LBP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SM2125894363475485700145</t>
+  </si>
+  <si>
+    <t>LBR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9596431245118150005156</t>
+  </si>
+  <si>
+    <t>SBR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>AT6825030000114574745458</t>
+  </si>
+  <si>
+    <t>AGR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>IT8915953684811254695203</t>
+  </si>
+  <si>
+    <t>DGR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9020960043023096200000</t>
+  </si>
+  <si>
+    <t>PGS00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DK5800750184310702510000</t>
+  </si>
+  <si>
+    <t>CIS00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5023455254943263234457</t>
+  </si>
+  <si>
+    <t>MQ00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GR4920910936583000000000</t>
+  </si>
+  <si>
+    <t>BV00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES3720960043032159000000</t>
+  </si>
+  <si>
+    <t>PP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE5512669681115112121210</t>
+  </si>
+  <si>
+    <t>PC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2956187775315550000651</t>
+  </si>
+  <si>
+    <t>GMM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES0425516848021156151054</t>
+  </si>
+  <si>
+    <t>CGM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>PT5764578946740051516490</t>
+  </si>
+  <si>
+    <t>GMM01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES4534698752714600549403</t>
+  </si>
+  <si>
+    <t>CSN00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2766649444162310000255</t>
+  </si>
+  <si>
+    <t>ALO00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>FR5623185484465641685100</t>
+  </si>
+  <si>
+    <t>GMM02@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE5021508149175421346497</t>
+  </si>
+  <si>
+    <t>TCP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE6721346154503164978451</t>
+  </si>
+  <si>
+    <t>CCP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7225187786311225455548</t>
+  </si>
+  <si>
+    <t>CAP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES4723164897642213030615</t>
+  </si>
+  <si>
+    <t>SFP00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2396536214865214585214</t>
+  </si>
+  <si>
+    <t>ELR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6885461325251978750005</t>
+  </si>
+  <si>
+    <t>DLR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>FI5024587946032003165464</t>
+  </si>
+  <si>
+    <t>HAR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5020960043073071400000</t>
+  </si>
+  <si>
+    <t>SPR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8220960043042158800000</t>
+  </si>
+  <si>
+    <t>GPR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7521654587985156484454</t>
+  </si>
+  <si>
+    <t>SAS00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES3251651681961210656510</t>
+  </si>
+  <si>
+    <t>BFS00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5566552211148855332200</t>
+  </si>
+  <si>
+    <t>DFG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GB9720910936583000000000</t>
+  </si>
+  <si>
+    <t>GMG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE9301821135910205540000</t>
+  </si>
+  <si>
+    <t>MLG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DE7822631245526916432102</t>
+  </si>
+  <si>
+    <t>IAG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES2120960043043075700000</t>
+  </si>
+  <si>
+    <t>IAG01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SM7325635478321002541225</t>
+  </si>
+  <si>
+    <t>GPG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6832154697195423121000</t>
+  </si>
+  <si>
+    <t>RGG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GB5520008521528775113366</t>
+  </si>
+  <si>
+    <t>AFG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8020960043033000100000</t>
+  </si>
+  <si>
+    <t>APM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>GB0836585214290025478551</t>
+  </si>
+  <si>
+    <t>GMM03@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9012548523465214585214</t>
+  </si>
+  <si>
+    <t>ALM01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6931624561042546920007</t>
+  </si>
+  <si>
+    <t>LDM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES1436154231712500312566</t>
+  </si>
+  <si>
+    <t>AD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8244875664127231645789</t>
+  </si>
+  <si>
+    <t>LR00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES1633620012937852100256</t>
+  </si>
+  <si>
+    <t>SBG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES1933218885441445121022</t>
+  </si>
+  <si>
+    <t>AFG01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8462581542713690044508</t>
+  </si>
+  <si>
+    <t>DGG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES3925165151118666365100</t>
+  </si>
+  <si>
+    <t>ROG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SOG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>PT3536952365020014425254</t>
+  </si>
+  <si>
+    <t>VVG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9565168874641561561500</t>
+  </si>
+  <si>
+    <t>VMG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES3220960583831234500000</t>
+  </si>
+  <si>
+    <t>MBG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7221416325811510005514</t>
+  </si>
+  <si>
+    <t>CBG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>LU0932628484504115151115</t>
+  </si>
+  <si>
+    <t>MSH00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES8163516541828944000984</t>
+  </si>
+  <si>
+    <t>SDM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>ES6223658965274585223202</t>
+  </si>
+  <si>
+    <t>EGM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>FI6132658012367712548745</t>
+  </si>
+  <si>
+    <t>GPM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7223652365142254222000</t>
+  </si>
+  <si>
+    <t>EAM00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9232584216971684051000</t>
+  </si>
+  <si>
+    <t>MG00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>LT9321856333126985542360</t>
+  </si>
+  <si>
+    <t>BDC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5736245978133245679001</t>
+  </si>
+  <si>
+    <t>NGC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7631245164156597845124</t>
+  </si>
+  <si>
+    <t>MLC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SM4423221158252545471411</t>
+  </si>
+  <si>
+    <t>MH00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>SE6832574512085411002255</t>
+  </si>
+  <si>
+    <t>MLC01@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES4420960043013468900000</t>
+  </si>
+  <si>
+    <t>CFC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES5631215643855060225021</t>
+  </si>
+  <si>
+    <t>CGC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES1665165654918886005001</t>
+  </si>
+  <si>
+    <t>KSC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>AT8365645150865168448896</t>
+  </si>
+  <si>
+    <t>MHC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>IT3526551681807651415636</t>
+  </si>
+  <si>
+    <t>CLD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>HU2399558741836555551120</t>
+  </si>
+  <si>
+    <t>MFD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>IE6851556584221251000254</t>
+  </si>
+  <si>
+    <t>GMM04@Agua2024.com</t>
+  </si>
+  <si>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>IVC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>DMC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>EBC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>NBC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>MSC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>MDC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>MFC00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>CDD00@Agua2024.com</t>
+  </si>
+  <si>
+    <t>AT3122515651915640081000</t>
+  </si>
+  <si>
+    <t>HPD00@Agua2024.com</t>
   </si>
 </sst>
 </file>
@@ -1922,22 +2480,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C6ACB8-7F34-425E-9257-91AD8B97F35F}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:R26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="30.140625"/>
-    <col min="6" max="6" customWidth="true" style="5" width="30.140625"/>
-    <col min="8" max="8" customWidth="true" width="22.5703125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="5" max="5" customWidth="true" width="30.109375"/>
+    <col min="6" max="6" customWidth="true" style="5" width="30.109375"/>
+    <col min="8" max="8" customWidth="true" width="22.5546875"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.88671875"/>
     <col min="14" max="14" customWidth="true" width="14.0"/>
-    <col min="15" max="15" style="7" width="11.42578125"/>
-    <col min="17" max="17" style="1" width="11.42578125"/>
+    <col min="15" max="15" style="7" width="11.44140625"/>
+    <col min="17" max="17" style="1" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -1990,7 +2548,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>501</v>
       </c>
@@ -2015,6 +2573,12 @@
       <c r="H2" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="I2" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>508</v>
+      </c>
       <c r="K2" t="s" s="0">
         <v>264</v>
       </c>
@@ -2034,7 +2598,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>14</v>
       </c>
@@ -2059,6 +2623,12 @@
       <c r="H3" s="3" t="s">
         <v>268</v>
       </c>
+      <c r="I3" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>510</v>
+      </c>
       <c r="K3" t="s" s="0">
         <v>264</v>
       </c>
@@ -2078,7 +2648,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
@@ -2103,6 +2673,12 @@
       <c r="H4" s="3" t="s">
         <v>269</v>
       </c>
+      <c r="I4" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>512</v>
+      </c>
       <c r="K4" t="s" s="0">
         <v>264</v>
       </c>
@@ -2122,7 +2698,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>15</v>
       </c>
@@ -2147,6 +2723,12 @@
       <c r="H5" s="3" t="s">
         <v>270</v>
       </c>
+      <c r="I5" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>514</v>
+      </c>
       <c r="K5" t="s" s="0">
         <v>264</v>
       </c>
@@ -2166,7 +2748,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>16</v>
       </c>
@@ -2191,6 +2773,12 @@
       <c r="H6" s="3" t="s">
         <v>271</v>
       </c>
+      <c r="I6" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>516</v>
+      </c>
       <c r="K6" t="s" s="0">
         <v>264</v>
       </c>
@@ -2210,7 +2798,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>17</v>
       </c>
@@ -2235,6 +2823,12 @@
       <c r="H7" s="3" t="s">
         <v>272</v>
       </c>
+      <c r="I7" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>518</v>
+      </c>
       <c r="K7" t="s" s="0">
         <v>264</v>
       </c>
@@ -2254,7 +2848,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
@@ -2279,6 +2873,12 @@
       <c r="H8" s="3" t="s">
         <v>273</v>
       </c>
+      <c r="I8" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>520</v>
+      </c>
       <c r="K8" t="s" s="0">
         <v>264</v>
       </c>
@@ -2298,7 +2898,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>18</v>
       </c>
@@ -2323,6 +2923,12 @@
       <c r="H9" s="3" t="s">
         <v>274</v>
       </c>
+      <c r="I9" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>522</v>
+      </c>
       <c r="K9" t="s" s="0">
         <v>264</v>
       </c>
@@ -2342,7 +2948,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>19</v>
       </c>
@@ -2367,6 +2973,12 @@
       <c r="H10" s="3" t="s">
         <v>275</v>
       </c>
+      <c r="I10" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>524</v>
+      </c>
       <c r="K10" t="s" s="0">
         <v>264</v>
       </c>
@@ -2386,7 +2998,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s" s="0">
         <v>20</v>
       </c>
@@ -2411,6 +3023,12 @@
       <c r="H11" s="3" t="s">
         <v>276</v>
       </c>
+      <c r="I11" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>526</v>
+      </c>
       <c r="K11" t="s" s="0">
         <v>264</v>
       </c>
@@ -2430,7 +3048,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s" s="0">
         <v>21</v>
       </c>
@@ -2455,6 +3073,12 @@
       <c r="H12" s="3" t="s">
         <v>277</v>
       </c>
+      <c r="I12" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>528</v>
+      </c>
       <c r="K12" t="s" s="0">
         <v>264</v>
       </c>
@@ -2474,7 +3098,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s" s="0">
         <v>22</v>
       </c>
@@ -2499,6 +3123,12 @@
       <c r="H13" s="3" t="s">
         <v>278</v>
       </c>
+      <c r="I13" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>530</v>
+      </c>
       <c r="K13" t="s" s="0">
         <v>264</v>
       </c>
@@ -2518,7 +3148,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s" s="0">
         <v>23</v>
       </c>
@@ -2562,13 +3192,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s" s="0">
         <v>24</v>
       </c>
@@ -2593,6 +3223,12 @@
       <c r="H16" s="3" t="s">
         <v>280</v>
       </c>
+      <c r="I16" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>532</v>
+      </c>
       <c r="K16" t="s" s="0">
         <v>264</v>
       </c>
@@ -2612,7 +3248,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s" s="0">
         <v>25</v>
       </c>
@@ -2637,6 +3273,12 @@
       <c r="H17" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="I17" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>534</v>
+      </c>
       <c r="K17" t="s" s="0">
         <v>264</v>
       </c>
@@ -2656,7 +3298,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s" s="0">
         <v>26</v>
       </c>
@@ -2667,7 +3309,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>506</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>393</v>
@@ -2681,6 +3323,12 @@
       <c r="H18" s="3" t="s">
         <v>282</v>
       </c>
+      <c r="I18" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>536</v>
+      </c>
       <c r="K18" t="s" s="0">
         <v>264</v>
       </c>
@@ -2700,7 +3348,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s" s="0">
         <v>27</v>
       </c>
@@ -2725,6 +3373,12 @@
       <c r="H19" s="3" t="s">
         <v>283</v>
       </c>
+      <c r="I19" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>538</v>
+      </c>
       <c r="K19" t="s" s="0">
         <v>264</v>
       </c>
@@ -2744,7 +3398,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s" s="0">
         <v>28</v>
       </c>
@@ -2755,7 +3409,7 @@
         <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>392</v>
@@ -2769,6 +3423,12 @@
       <c r="H20" s="3" t="s">
         <v>284</v>
       </c>
+      <c r="I20" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>540</v>
+      </c>
       <c r="K20" t="s" s="0">
         <v>264</v>
       </c>
@@ -2788,7 +3448,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s" s="0">
         <v>29</v>
       </c>
@@ -2813,6 +3473,12 @@
       <c r="H21" s="3" t="s">
         <v>279</v>
       </c>
+      <c r="I21" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>542</v>
+      </c>
       <c r="K21" t="s" s="0">
         <v>264</v>
       </c>
@@ -2832,7 +3498,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s" s="0">
         <v>30</v>
       </c>
@@ -2854,6 +3520,12 @@
       <c r="H22" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="I22" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>544</v>
+      </c>
       <c r="K22" t="s" s="0">
         <v>264</v>
       </c>
@@ -2873,7 +3545,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
@@ -2895,6 +3567,12 @@
       <c r="H23" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="I23" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>546</v>
+      </c>
       <c r="K23" t="s" s="0">
         <v>264</v>
       </c>
@@ -2914,7 +3592,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s" s="0">
         <v>32</v>
       </c>
@@ -2936,6 +3614,12 @@
       <c r="H24" s="3" t="s">
         <v>287</v>
       </c>
+      <c r="I24" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>548</v>
+      </c>
       <c r="K24" t="s" s="0">
         <v>264</v>
       </c>
@@ -2955,7 +3639,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s" s="0">
         <v>33</v>
       </c>
@@ -2977,6 +3661,12 @@
       <c r="H25" s="3" t="s">
         <v>288</v>
       </c>
+      <c r="I25" t="s" s="0">
+        <v>549</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>550</v>
+      </c>
       <c r="K25" t="s" s="0">
         <v>264</v>
       </c>
@@ -2996,15 +3686,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="6" t="s">
-        <v>438</v>
-      </c>
+      <c r="F26" s="6"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s" s="0">
         <v>34</v>
       </c>
@@ -3029,6 +3717,12 @@
       <c r="H27" s="3" t="s">
         <v>289</v>
       </c>
+      <c r="I27" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>552</v>
+      </c>
       <c r="K27" t="s" s="0">
         <v>264</v>
       </c>
@@ -3048,7 +3742,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s" s="0">
         <v>35</v>
       </c>
@@ -3073,6 +3767,12 @@
       <c r="H28" s="3" t="s">
         <v>290</v>
       </c>
+      <c r="I28" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>554</v>
+      </c>
       <c r="K28" t="s" s="0">
         <v>264</v>
       </c>
@@ -3092,7 +3792,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s" s="0">
         <v>36</v>
       </c>
@@ -3117,6 +3817,12 @@
       <c r="H29" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="I29" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>556</v>
+      </c>
       <c r="K29" t="s" s="0">
         <v>264</v>
       </c>
@@ -3136,7 +3842,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s" s="0">
         <v>37</v>
       </c>
@@ -3161,6 +3867,12 @@
       <c r="H30" s="3" t="s">
         <v>292</v>
       </c>
+      <c r="I30" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>558</v>
+      </c>
       <c r="K30" t="s" s="0">
         <v>264</v>
       </c>
@@ -3180,7 +3892,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s" s="0">
         <v>38</v>
       </c>
@@ -3205,6 +3917,12 @@
       <c r="H31" s="3" t="s">
         <v>293</v>
       </c>
+      <c r="I31" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>560</v>
+      </c>
       <c r="K31" t="s" s="0">
         <v>264</v>
       </c>
@@ -3224,7 +3942,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s" s="0">
         <v>39</v>
       </c>
@@ -3249,6 +3967,12 @@
       <c r="H32" s="3" t="s">
         <v>294</v>
       </c>
+      <c r="I32" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>562</v>
+      </c>
       <c r="K32" t="s" s="0">
         <v>264</v>
       </c>
@@ -3268,25 +3992,25 @@
         <v>495</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D34" s="1"/>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D35" s="1"/>
       <c r="E35" s="4"/>
       <c r="F35" s="6"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s" s="0">
         <v>40</v>
       </c>
@@ -3311,6 +4035,12 @@
       <c r="H36" s="3" t="s">
         <v>295</v>
       </c>
+      <c r="I36" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>564</v>
+      </c>
       <c r="K36" t="s" s="0">
         <v>264</v>
       </c>
@@ -3330,7 +4060,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s" s="0">
         <v>41</v>
       </c>
@@ -3355,6 +4085,12 @@
       <c r="H37" s="3" t="s">
         <v>296</v>
       </c>
+      <c r="I37" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>566</v>
+      </c>
       <c r="K37" t="s" s="0">
         <v>264</v>
       </c>
@@ -3374,7 +4110,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s" s="0">
         <v>42</v>
       </c>
@@ -3385,7 +4121,7 @@
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>394</v>
@@ -3399,6 +4135,12 @@
       <c r="H38" s="3" t="s">
         <v>297</v>
       </c>
+      <c r="I38" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>568</v>
+      </c>
       <c r="K38" t="s" s="0">
         <v>264</v>
       </c>
@@ -3418,7 +4160,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s" s="0">
         <v>43</v>
       </c>
@@ -3443,6 +4185,12 @@
       <c r="H39" s="3" t="s">
         <v>298</v>
       </c>
+      <c r="I39" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>570</v>
+      </c>
       <c r="K39" t="s" s="0">
         <v>264</v>
       </c>
@@ -3462,7 +4210,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s" s="0">
         <v>44</v>
       </c>
@@ -3487,6 +4235,12 @@
       <c r="H40" s="3" t="s">
         <v>299</v>
       </c>
+      <c r="I40" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>572</v>
+      </c>
       <c r="K40" t="s" s="0">
         <v>264</v>
       </c>
@@ -3506,7 +4260,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s" s="0">
         <v>45</v>
       </c>
@@ -3531,6 +4285,12 @@
       <c r="H41" s="3" t="s">
         <v>300</v>
       </c>
+      <c r="I41" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>574</v>
+      </c>
       <c r="K41" t="s" s="0">
         <v>264</v>
       </c>
@@ -3550,7 +4310,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s" s="0">
         <v>46</v>
       </c>
@@ -3561,7 +4321,7 @@
         <v>143</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>397</v>
@@ -3575,6 +4335,12 @@
       <c r="H42" s="3" t="s">
         <v>301</v>
       </c>
+      <c r="I42" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>576</v>
+      </c>
       <c r="K42" t="s" s="0">
         <v>264</v>
       </c>
@@ -3594,7 +4360,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s" s="0">
         <v>47</v>
       </c>
@@ -3619,6 +4385,12 @@
       <c r="H43" s="3" t="s">
         <v>302</v>
       </c>
+      <c r="I43" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>578</v>
+      </c>
       <c r="K43" t="s" s="0">
         <v>264</v>
       </c>
@@ -3638,7 +4410,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s" s="0">
         <v>39</v>
       </c>
@@ -3663,6 +4435,12 @@
       <c r="H44" s="3" t="s">
         <v>303</v>
       </c>
+      <c r="I44" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>580</v>
+      </c>
       <c r="K44" t="s" s="0">
         <v>264</v>
       </c>
@@ -3682,7 +4460,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s" s="0">
         <v>48</v>
       </c>
@@ -3707,6 +4485,12 @@
       <c r="H45" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="I45" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>582</v>
+      </c>
       <c r="K45" t="s" s="0">
         <v>264</v>
       </c>
@@ -3726,7 +4510,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s" s="0">
         <v>49</v>
       </c>
@@ -3751,6 +4535,12 @@
       <c r="H46" s="3" t="s">
         <v>305</v>
       </c>
+      <c r="I46" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>584</v>
+      </c>
       <c r="K46" t="s" s="0">
         <v>264</v>
       </c>
@@ -3770,7 +4560,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s" s="0">
         <v>50</v>
       </c>
@@ -3795,6 +4585,12 @@
       <c r="H47" s="3" t="s">
         <v>306</v>
       </c>
+      <c r="I47" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>586</v>
+      </c>
       <c r="K47" t="s" s="0">
         <v>264</v>
       </c>
@@ -3814,7 +4610,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s" s="0">
         <v>51</v>
       </c>
@@ -3839,6 +4635,12 @@
       <c r="H48" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="I48" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>588</v>
+      </c>
       <c r="K48" t="s" s="0">
         <v>264</v>
       </c>
@@ -3858,7 +4660,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s" s="0">
         <v>52</v>
       </c>
@@ -3883,6 +4685,12 @@
       <c r="H49" s="3" t="s">
         <v>307</v>
       </c>
+      <c r="I49" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>590</v>
+      </c>
       <c r="K49" t="s" s="0">
         <v>264</v>
       </c>
@@ -3902,7 +4710,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s" s="0">
         <v>53</v>
       </c>
@@ -3927,6 +4735,12 @@
       <c r="H50" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="I50" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>592</v>
+      </c>
       <c r="K50" t="s" s="0">
         <v>264</v>
       </c>
@@ -3946,7 +4760,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s" s="0">
         <v>53</v>
       </c>
@@ -3971,6 +4785,12 @@
       <c r="H51" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="I51" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>594</v>
+      </c>
       <c r="K51" t="s" s="0">
         <v>264</v>
       </c>
@@ -3990,7 +4810,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s" s="0">
         <v>13</v>
       </c>
@@ -4015,6 +4835,12 @@
       <c r="H52" s="3" t="s">
         <v>310</v>
       </c>
+      <c r="I52" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>596</v>
+      </c>
       <c r="K52" t="s" s="0">
         <v>264</v>
       </c>
@@ -4034,7 +4860,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s" s="0">
         <v>14</v>
       </c>
@@ -4059,6 +4885,12 @@
       <c r="H53" s="3" t="s">
         <v>311</v>
       </c>
+      <c r="I53" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>598</v>
+      </c>
       <c r="K53" t="s" s="0">
         <v>264</v>
       </c>
@@ -4078,7 +4910,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s" s="0">
         <v>15</v>
       </c>
@@ -4122,7 +4954,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s" s="0">
         <v>15</v>
       </c>
@@ -4147,6 +4979,12 @@
       <c r="H55" s="3" t="s">
         <v>313</v>
       </c>
+      <c r="I55" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>600</v>
+      </c>
       <c r="K55" t="s" s="0">
         <v>264</v>
       </c>
@@ -4166,31 +5004,31 @@
         <v>495</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
       <c r="E56" s="4"/>
       <c r="F56" s="6"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
       <c r="E57" s="4"/>
       <c r="F57" s="6"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
       <c r="E58" s="4"/>
       <c r="F58" s="6"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="E59" s="4"/>
       <c r="F59" s="6"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s" s="0">
         <v>19</v>
       </c>
@@ -4215,6 +5053,12 @@
       <c r="H60" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="I60" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>602</v>
+      </c>
       <c r="K60" t="s" s="0">
         <v>264</v>
       </c>
@@ -4234,7 +5078,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s" s="0">
         <v>54</v>
       </c>
@@ -4259,6 +5103,12 @@
       <c r="H61" s="3" t="s">
         <v>315</v>
       </c>
+      <c r="I61" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>604</v>
+      </c>
       <c r="K61" t="s" s="0">
         <v>264</v>
       </c>
@@ -4278,7 +5128,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s" s="0">
         <v>21</v>
       </c>
@@ -4303,6 +5153,12 @@
       <c r="H62" s="3" t="s">
         <v>316</v>
       </c>
+      <c r="I62" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>606</v>
+      </c>
       <c r="K62" t="s" s="0">
         <v>264</v>
       </c>
@@ -4322,7 +5178,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s" s="0">
         <v>22</v>
       </c>
@@ -4347,6 +5203,12 @@
       <c r="H63" s="3" t="s">
         <v>317</v>
       </c>
+      <c r="I63" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>608</v>
+      </c>
       <c r="K63" t="s" s="0">
         <v>264</v>
       </c>
@@ -4366,7 +5228,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s" s="0">
         <v>23</v>
       </c>
@@ -4388,6 +5250,12 @@
       <c r="H64" s="3" t="s">
         <v>318</v>
       </c>
+      <c r="I64" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>610</v>
+      </c>
       <c r="K64" t="s" s="0">
         <v>264</v>
       </c>
@@ -4407,7 +5275,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s" s="0">
         <v>55</v>
       </c>
@@ -4429,6 +5297,12 @@
       <c r="H65" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="I65" t="s" s="0">
+        <v>611</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>612</v>
+      </c>
       <c r="K65" t="s" s="0">
         <v>264</v>
       </c>
@@ -4448,7 +5322,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s" s="0">
         <v>24</v>
       </c>
@@ -4489,7 +5363,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s" s="0">
         <v>25</v>
       </c>
@@ -4500,7 +5374,7 @@
         <v>87</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>405</v>
@@ -4514,6 +5388,12 @@
       <c r="H67" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="I67" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>614</v>
+      </c>
       <c r="K67" t="s" s="0">
         <v>264</v>
       </c>
@@ -4533,7 +5413,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s" s="0">
         <v>26</v>
       </c>
@@ -4558,6 +5438,12 @@
       <c r="H68" s="3" t="s">
         <v>322</v>
       </c>
+      <c r="I68" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>616</v>
+      </c>
       <c r="K68" t="s" s="0">
         <v>264</v>
       </c>
@@ -4577,7 +5463,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s" s="0">
         <v>27</v>
       </c>
@@ -4602,6 +5488,12 @@
       <c r="H69" s="3" t="s">
         <v>323</v>
       </c>
+      <c r="I69" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>618</v>
+      </c>
       <c r="K69" t="s" s="0">
         <v>264</v>
       </c>
@@ -4621,7 +5513,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s" s="0">
         <v>16</v>
       </c>
@@ -4646,6 +5538,12 @@
       <c r="H70" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="I70" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>620</v>
+      </c>
       <c r="K70" t="s" s="0">
         <v>264</v>
       </c>
@@ -4665,7 +5563,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s" s="0">
         <v>17</v>
       </c>
@@ -4690,6 +5588,12 @@
       <c r="H71" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="I71" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>621</v>
+      </c>
       <c r="K71" t="s" s="0">
         <v>264</v>
       </c>
@@ -4709,7 +5613,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s" s="0">
         <v>18</v>
       </c>
@@ -4734,6 +5638,12 @@
       <c r="H72" s="3" t="s">
         <v>325</v>
       </c>
+      <c r="I72" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>623</v>
+      </c>
       <c r="K72" t="s" s="0">
         <v>264</v>
       </c>
@@ -4753,7 +5663,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s" s="0">
         <v>18</v>
       </c>
@@ -4778,6 +5688,12 @@
       <c r="H73" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="I73" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>625</v>
+      </c>
       <c r="K73" t="s" s="0">
         <v>264</v>
       </c>
@@ -4797,7 +5713,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s" s="0">
         <v>56</v>
       </c>
@@ -4822,6 +5738,12 @@
       <c r="H74" s="3" t="s">
         <v>327</v>
       </c>
+      <c r="I74" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>627</v>
+      </c>
       <c r="K74" t="s" s="0">
         <v>264</v>
       </c>
@@ -4841,7 +5763,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s" s="0">
         <v>57</v>
       </c>
@@ -4866,6 +5788,12 @@
       <c r="H75" s="3" t="s">
         <v>328</v>
       </c>
+      <c r="I75" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>629</v>
+      </c>
       <c r="K75" t="s" s="0">
         <v>264</v>
       </c>
@@ -4885,7 +5813,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s" s="0">
         <v>58</v>
       </c>
@@ -4910,6 +5838,12 @@
       <c r="H76" s="3" t="s">
         <v>329</v>
       </c>
+      <c r="I76" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>631</v>
+      </c>
       <c r="K76" t="s" s="0">
         <v>264</v>
       </c>
@@ -4929,7 +5863,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s" s="0">
         <v>59</v>
       </c>
@@ -4973,13 +5907,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D78" s="1"/>
       <c r="E78" s="4"/>
       <c r="F78" s="6"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s" s="0">
         <v>60</v>
       </c>
@@ -5004,6 +5938,12 @@
       <c r="H79" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="I79" t="s" s="0">
+        <v>632</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>633</v>
+      </c>
       <c r="K79" t="s" s="0">
         <v>264</v>
       </c>
@@ -5023,7 +5963,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s" s="0">
         <v>61</v>
       </c>
@@ -5046,7 +5986,13 @@
         <v>363</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>332</v>
+        <v>634</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>636</v>
       </c>
       <c r="K80" t="s" s="0">
         <v>264</v>
@@ -5067,7 +6013,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s" s="0">
         <v>62</v>
       </c>
@@ -5092,6 +6038,12 @@
       <c r="H81" s="3" t="s">
         <v>333</v>
       </c>
+      <c r="I81" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>638</v>
+      </c>
       <c r="K81" t="s" s="0">
         <v>264</v>
       </c>
@@ -5111,7 +6063,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s" s="0">
         <v>63</v>
       </c>
@@ -5136,6 +6088,12 @@
       <c r="H82" s="3" t="s">
         <v>334</v>
       </c>
+      <c r="I82" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>640</v>
+      </c>
       <c r="K82" t="s" s="0">
         <v>264</v>
       </c>
@@ -5155,7 +6113,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s" s="0">
         <v>64</v>
       </c>
@@ -5199,7 +6157,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s" s="0">
         <v>65</v>
       </c>
@@ -5221,6 +6179,12 @@
       <c r="H84" s="3" t="s">
         <v>336</v>
       </c>
+      <c r="I84" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>642</v>
+      </c>
       <c r="K84" t="s" s="0">
         <v>264</v>
       </c>
@@ -5240,13 +6204,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
       <c r="E85" s="4"/>
       <c r="F85" s="6"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s" s="0">
         <v>66</v>
       </c>
@@ -5290,7 +6254,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s" s="0">
         <v>67</v>
       </c>
@@ -5315,6 +6279,12 @@
       <c r="H87" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="I87" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>644</v>
+      </c>
       <c r="K87" t="s" s="0">
         <v>264</v>
       </c>
@@ -5334,7 +6304,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s" s="0">
         <v>68</v>
       </c>
@@ -5359,6 +6329,12 @@
       <c r="H88" s="3" t="s">
         <v>339</v>
       </c>
+      <c r="I88" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>646</v>
+      </c>
       <c r="K88" t="s" s="0">
         <v>264</v>
       </c>
@@ -5378,7 +6354,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s" s="0">
         <v>69</v>
       </c>
@@ -5403,6 +6379,12 @@
       <c r="H89" s="3" t="s">
         <v>340</v>
       </c>
+      <c r="I89" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>648</v>
+      </c>
       <c r="K89" t="s" s="0">
         <v>264</v>
       </c>
@@ -5422,7 +6404,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s" s="0">
         <v>52</v>
       </c>
@@ -5444,6 +6426,12 @@
       <c r="H90" s="3" t="s">
         <v>341</v>
       </c>
+      <c r="I90" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>650</v>
+      </c>
       <c r="K90" t="s" s="0">
         <v>264</v>
       </c>
@@ -5463,7 +6451,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s" s="0">
         <v>70</v>
       </c>
@@ -5488,6 +6476,12 @@
       <c r="H91" s="3" t="s">
         <v>342</v>
       </c>
+      <c r="I91" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>652</v>
+      </c>
       <c r="K91" t="s" s="0">
         <v>264</v>
       </c>
@@ -5507,7 +6501,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s" s="0">
         <v>71</v>
       </c>
@@ -5532,6 +6526,12 @@
       <c r="H92" s="3" t="s">
         <v>343</v>
       </c>
+      <c r="I92" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>654</v>
+      </c>
       <c r="K92" t="s" s="0">
         <v>264</v>
       </c>
@@ -5551,7 +6551,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s" s="0">
         <v>72</v>
       </c>
@@ -5576,6 +6576,12 @@
       <c r="H93" s="3" t="s">
         <v>344</v>
       </c>
+      <c r="I93" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>656</v>
+      </c>
       <c r="K93" t="s" s="0">
         <v>264</v>
       </c>
@@ -5595,7 +6601,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s" s="0">
         <v>73</v>
       </c>
@@ -5637,7 +6643,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s" s="0">
         <v>74</v>
       </c>
@@ -5662,6 +6668,12 @@
       <c r="H95" s="3" t="s">
         <v>346</v>
       </c>
+      <c r="I95" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>658</v>
+      </c>
       <c r="K95" t="s" s="0">
         <v>264</v>
       </c>
@@ -5681,43 +6693,43 @@
         <v>498</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D96" s="1"/>
       <c r="E96" s="4"/>
       <c r="F96" s="6"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D97" s="1"/>
       <c r="E97" s="4"/>
       <c r="F97" s="6"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D98" s="1"/>
       <c r="E98" s="4"/>
       <c r="F98" s="6"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D99" s="1"/>
       <c r="E99" s="4"/>
       <c r="F99" s="6"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
       <c r="E100" s="4"/>
       <c r="F100" s="6"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D101" s="1"/>
       <c r="E101" s="4"/>
       <c r="F101" s="6"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s" s="0">
         <v>56</v>
       </c>
@@ -5740,7 +6752,13 @@
         <v>373</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>347</v>
+        <v>659</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>661</v>
       </c>
       <c r="K102" t="s" s="0">
         <v>264</v>
@@ -5761,7 +6779,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s" s="0">
         <v>57</v>
       </c>
@@ -5784,7 +6802,13 @@
         <v>374</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>348</v>
+        <v>662</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>664</v>
       </c>
       <c r="K103" t="s" s="0">
         <v>264</v>
@@ -5805,7 +6829,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s" s="0">
         <v>58</v>
       </c>
@@ -5830,6 +6854,12 @@
       <c r="H104" s="3" t="s">
         <v>349</v>
       </c>
+      <c r="I104" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>666</v>
+      </c>
       <c r="K104" t="s" s="0">
         <v>264</v>
       </c>
@@ -5849,7 +6879,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s" s="0">
         <v>59</v>
       </c>
@@ -5893,7 +6923,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s" s="0">
         <v>13</v>
       </c>
@@ -5916,7 +6946,13 @@
         <v>381</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>351</v>
+        <v>667</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>669</v>
       </c>
       <c r="K106" t="s" s="0">
         <v>264</v>
@@ -5937,127 +6973,127 @@
         <v>499</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D107" s="1"/>
       <c r="E107" s="4"/>
       <c r="F107" s="6"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D108" s="1"/>
       <c r="E108" s="4"/>
       <c r="F108" s="6"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D109" s="1"/>
       <c r="E109" s="4"/>
       <c r="F109" s="6"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D110" s="1"/>
       <c r="E110" s="4"/>
       <c r="F110" s="6"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D111" s="1"/>
       <c r="E111" s="4"/>
       <c r="F111" s="6"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D112" s="1"/>
       <c r="E112" s="4"/>
       <c r="F112" s="6"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D113" s="1"/>
       <c r="E113" s="4"/>
       <c r="F113" s="6"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D114" s="1"/>
       <c r="E114" s="4"/>
       <c r="F114" s="6"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D115" s="1"/>
       <c r="E115" s="4"/>
       <c r="F115" s="6"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D116" s="1"/>
       <c r="E116" s="4"/>
       <c r="F116" s="6"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D117" s="1"/>
       <c r="E117" s="4"/>
       <c r="F117" s="6"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D118" s="1"/>
       <c r="E118" s="4"/>
       <c r="F118" s="6"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D119" s="1"/>
       <c r="E119" s="4"/>
       <c r="F119" s="6"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D120" s="1"/>
       <c r="E120" s="4"/>
       <c r="F120" s="6"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D121" s="1"/>
       <c r="E121" s="4"/>
       <c r="F121" s="6"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D122" s="1"/>
       <c r="E122" s="4"/>
       <c r="F122" s="6"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D123" s="1"/>
       <c r="E123" s="4"/>
       <c r="F123" s="6"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D124" s="1"/>
       <c r="E124" s="4"/>
       <c r="F124" s="6"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D125" s="1"/>
       <c r="E125" s="4"/>
       <c r="F125" s="6"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D126" s="1"/>
       <c r="E126" s="4"/>
       <c r="F126" s="6"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
@@ -6082,6 +7118,12 @@
       <c r="H127" s="3" t="s">
         <v>352</v>
       </c>
+      <c r="I127" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="J127" t="s" s="0">
+        <v>671</v>
+      </c>
       <c r="K127" t="s" s="0">
         <v>264</v>
       </c>
@@ -6101,7 +7143,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" t="s" s="0">
         <v>76</v>
       </c>
@@ -6124,7 +7166,13 @@
         <v>369</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>353</v>
+        <v>672</v>
+      </c>
+      <c r="I128" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="J128" t="s" s="0">
+        <v>674</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>264</v>
@@ -6145,7 +7193,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" t="s" s="0">
         <v>77</v>
       </c>
@@ -6170,6 +7218,12 @@
       <c r="H129" s="3" t="s">
         <v>354</v>
       </c>
+      <c r="I129" t="s" s="0">
+        <v>675</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>676</v>
+      </c>
       <c r="K129" t="s" s="0">
         <v>264</v>
       </c>
@@ -6189,7 +7243,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" t="s" s="0">
         <v>68</v>
       </c>
@@ -6214,6 +7268,12 @@
       <c r="H130" s="3" t="s">
         <v>355</v>
       </c>
+      <c r="I130" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="J130" t="s" s="0">
+        <v>678</v>
+      </c>
       <c r="K130" t="s" s="0">
         <v>264</v>
       </c>
@@ -6233,7 +7293,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" t="s" s="0">
         <v>69</v>
       </c>
@@ -6258,6 +7318,12 @@
       <c r="H131" s="3" t="s">
         <v>356</v>
       </c>
+      <c r="I131" t="s" s="0">
+        <v>679</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>680</v>
+      </c>
       <c r="K131" t="s" s="0">
         <v>264</v>
       </c>
@@ -6277,7 +7343,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" t="s" s="0">
         <v>52</v>
       </c>
@@ -6302,6 +7368,12 @@
       <c r="H132" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="I132" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>682</v>
+      </c>
       <c r="K132" t="s" s="0">
         <v>264</v>
       </c>
@@ -6321,7 +7393,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
@@ -6346,6 +7418,12 @@
       <c r="H133" s="3" t="s">
         <v>358</v>
       </c>
+      <c r="I133" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="J133" t="s" s="0">
+        <v>684</v>
+      </c>
       <c r="K133" t="s" s="0">
         <v>264</v>
       </c>
@@ -6365,7 +7443,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" t="s" s="0">
         <v>71</v>
       </c>
@@ -6390,6 +7468,12 @@
       <c r="H134" s="3" t="s">
         <v>359</v>
       </c>
+      <c r="I134" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="J134" t="s" s="0">
+        <v>686</v>
+      </c>
       <c r="K134" t="s" s="0">
         <v>264</v>
       </c>
@@ -6409,7 +7493,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" t="s" s="0">
         <v>72</v>
       </c>
@@ -6451,7 +7535,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" t="s" s="0">
         <v>73</v>
       </c>
@@ -6476,6 +7560,12 @@
       <c r="H136" s="3" t="s">
         <v>361</v>
       </c>
+      <c r="I136" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="J136" t="s" s="0">
+        <v>688</v>
+      </c>
       <c r="K136" t="s" s="0">
         <v>264</v>
       </c>
@@ -6495,66 +7585,66 @@
         <v>502</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E137" s="4"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E138" s="4"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E139" s="4"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E140" s="4"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E141" s="4"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E142" s="4"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E143" s="4"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E144" s="4"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E145" s="4"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E146" s="4"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E147" s="4"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E148" s="4"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E149" s="4"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E150" s="4"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F152" s="6"/>
     </row>
   </sheetData>
@@ -6565,22 +7655,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A8F51-8D2A-4E56-BAC3-F686CC936FAB}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.85546875"/>
-    <col min="2" max="2" customWidth="true" width="14.85546875"/>
+    <col min="1" max="1" customWidth="true" width="15.88671875"/>
+    <col min="2" max="2" customWidth="true" width="14.88671875"/>
     <col min="6" max="6" customWidth="true" width="46.0"/>
-    <col min="7" max="7" customWidth="true" width="14.28515625"/>
-    <col min="11" max="12" customWidth="true" width="20.7109375"/>
+    <col min="7" max="7" customWidth="true" width="14.33203125"/>
+    <col min="11" max="12" customWidth="true" width="20.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s" s="0">
         <v>470</v>
       </c>
@@ -6621,7 +7711,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s" s="0">
         <v>471</v>
       </c>
@@ -6653,7 +7743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s" s="0">
         <v>471</v>
       </c>
@@ -6685,7 +7775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s" s="0">
         <v>471</v>
       </c>
@@ -6717,7 +7807,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s" s="0">
         <v>471</v>
       </c>
@@ -6749,7 +7839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s" s="0">
         <v>471</v>
       </c>
@@ -6778,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
         <v>471</v>
       </c>
@@ -6807,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s" s="0">
         <v>471</v>
       </c>
@@ -6839,7 +7929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s" s="0">
         <v>471</v>
       </c>
@@ -6867,8 +7957,11 @@
       <c r="J9" s="0">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s" s="0">
         <v>471</v>
       </c>
@@ -6889,6 +7982,44 @@
       </c>
       <c r="H10" s="0">
         <v>25</v>
+      </c>
+      <c r="M10" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="C11" s="0">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="H11" s="0">
+        <v>20</v>
+      </c>
+      <c r="I11" s="0">
+        <v>30</v>
+      </c>
+      <c r="J11" s="0">
+        <v>2</v>
+      </c>
+      <c r="M11" s="0">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/SistemasAguaTrasEjecucion.xlsx
+++ b/src/resources/SistemasAguaTrasEjecucion.xlsx
@@ -5,39 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hds_8\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202898\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA42F524-A6D0-442B-A471-5D24016F1AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FF753A-F146-4478-9E33-87A6307BEA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF8BD292-BC82-4648-93FB-5EF5760864FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Contribuyente" sheetId="1" r:id="rId1"/>
     <sheet name="Ordenanza" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="692">
   <si>
     <t>Nombre</t>
   </si>
@@ -1452,9 +1441,6 @@
     <t>Pueblo</t>
   </si>
   <si>
-    <t>Prueba</t>
-  </si>
-  <si>
     <t>Hogar</t>
   </si>
   <si>
@@ -1518,36 +1504,24 @@
     <t>SobreQueConcepto</t>
   </si>
   <si>
-    <t>Empresa</t>
-  </si>
-  <si>
     <t>conceptosACobrar</t>
   </si>
   <si>
     <t>1 2 3</t>
   </si>
   <si>
-    <t>1 2</t>
-  </si>
-  <si>
     <t>TipoCalculo</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Importe Desagüe</t>
   </si>
   <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>3 1</t>
-  </si>
-  <si>
     <t>PYME</t>
   </si>
   <si>
@@ -1555,6 +1529,30 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Astorga</t>
+  </si>
+  <si>
+    <t>Cuarto tramo</t>
+  </si>
+  <si>
+    <t>Agua cuarto tramo</t>
+  </si>
+  <si>
+    <t>Gran empresa</t>
+  </si>
+  <si>
+    <t>Precio fijo alcantarillado</t>
+  </si>
+  <si>
+    <t>Importe alcantarillado</t>
+  </si>
+  <si>
+    <t>4 5 10</t>
+  </si>
+  <si>
+    <t>6 8 9</t>
   </si>
   <si>
     <t>09548416N</t>
@@ -2182,9 +2180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2222,7 +2220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2328,7 +2326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2470,7 +2468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2480,22 +2478,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C6ACB8-7F34-425E-9257-91AD8B97F35F}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="30.109375"/>
-    <col min="6" max="6" customWidth="true" style="5" width="30.109375"/>
-    <col min="8" max="8" customWidth="true" width="22.5546875"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.88671875"/>
+    <col min="5" max="5" customWidth="true" width="30.140625"/>
+    <col min="6" max="6" customWidth="true" style="5" width="30.140625"/>
+    <col min="8" max="8" customWidth="true" width="22.5703125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.85546875"/>
     <col min="14" max="14" customWidth="true" width="14.0"/>
-    <col min="15" max="15" style="7" width="11.44140625"/>
-    <col min="17" max="17" style="1" width="11.44140625"/>
+    <col min="15" max="15" style="7" width="11.42578125"/>
+    <col min="17" max="17" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -2545,12 +2543,12 @@
         <v>266</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>95</v>
@@ -2574,13 +2572,13 @@
         <v>267</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="L2" s="0">
         <v>0</v>
@@ -2595,10 +2593,10 @@
         <v>45294</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
         <v>14</v>
       </c>
@@ -2624,10 +2622,10 @@
         <v>268</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>264</v>
@@ -2645,10 +2643,10 @@
         <v>38267</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
         <v>15</v>
       </c>
@@ -2674,10 +2672,10 @@
         <v>269</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>264</v>
@@ -2695,10 +2693,10 @@
         <v>39682</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
         <v>15</v>
       </c>
@@ -2724,16 +2722,16 @@
         <v>270</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L5" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M5" s="0">
         <v>942</v>
@@ -2745,10 +2743,10 @@
         <v>38765</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
         <v>16</v>
       </c>
@@ -2774,10 +2772,10 @@
         <v>271</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K6" t="s" s="0">
         <v>264</v>
@@ -2795,10 +2793,10 @@
         <v>38646</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s" s="0">
         <v>17</v>
       </c>
@@ -2824,10 +2822,10 @@
         <v>272</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="K7" t="s" s="0">
         <v>264</v>
@@ -2845,10 +2843,10 @@
         <v>41039</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
@@ -2874,16 +2872,16 @@
         <v>273</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K8" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L8" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M8" s="0">
         <v>586</v>
@@ -2895,10 +2893,10 @@
         <v>43912</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
         <v>18</v>
       </c>
@@ -2924,10 +2922,10 @@
         <v>274</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K9" t="s" s="0">
         <v>264</v>
@@ -2945,10 +2943,10 @@
         <v>41745</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
         <v>19</v>
       </c>
@@ -2974,10 +2972,10 @@
         <v>275</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>264</v>
@@ -2995,10 +2993,10 @@
         <v>44978</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
         <v>20</v>
       </c>
@@ -3024,16 +3022,16 @@
         <v>276</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K11" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M11" s="0">
         <v>645</v>
@@ -3045,10 +3043,10 @@
         <v>39134</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s" s="0">
         <v>21</v>
       </c>
@@ -3074,10 +3072,10 @@
         <v>277</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="K12" t="s" s="0">
         <v>264</v>
@@ -3095,10 +3093,10 @@
         <v>44614</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s" s="0">
         <v>22</v>
       </c>
@@ -3124,10 +3122,10 @@
         <v>278</v>
       </c>
       <c r="I13" t="s" s="0">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K13" t="s" s="0">
         <v>264</v>
@@ -3145,10 +3143,10 @@
         <v>41490</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s" s="0">
         <v>23</v>
       </c>
@@ -3177,7 +3175,7 @@
         <v>264</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M14" s="0">
         <v>72</v>
@@ -3189,16 +3187,16 @@
         <v>41228</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s" s="0">
         <v>24</v>
       </c>
@@ -3224,10 +3222,10 @@
         <v>280</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K16" t="s" s="0">
         <v>264</v>
@@ -3245,10 +3243,10 @@
         <v>40637</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s" s="0">
         <v>25</v>
       </c>
@@ -3274,10 +3272,10 @@
         <v>281</v>
       </c>
       <c r="I17" t="s" s="0">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K17" t="s" s="0">
         <v>264</v>
@@ -3295,10 +3293,10 @@
         <v>45079</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s" s="0">
         <v>26</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>393</v>
@@ -3324,10 +3322,10 @@
         <v>282</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K18" t="s" s="0">
         <v>264</v>
@@ -3345,10 +3343,10 @@
         <v>43017</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s" s="0">
         <v>27</v>
       </c>
@@ -3374,16 +3372,16 @@
         <v>283</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K19" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L19" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M19" s="0">
         <v>968</v>
@@ -3395,10 +3393,10 @@
         <v>39371</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s" s="0">
         <v>28</v>
       </c>
@@ -3424,10 +3422,10 @@
         <v>284</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K20" t="s" s="0">
         <v>264</v>
@@ -3445,10 +3443,10 @@
         <v>39934</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s" s="0">
         <v>29</v>
       </c>
@@ -3474,10 +3472,10 @@
         <v>279</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K21" t="s" s="0">
         <v>264</v>
@@ -3495,10 +3493,10 @@
         <v>43868</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s" s="0">
         <v>30</v>
       </c>
@@ -3521,16 +3519,16 @@
         <v>285</v>
       </c>
       <c r="I22" t="s" s="0">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="J22" t="s" s="0">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="K22" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L22" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M22" s="0">
         <v>25</v>
@@ -3542,10 +3540,10 @@
         <v>41262</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s" s="0">
         <v>31</v>
       </c>
@@ -3568,10 +3566,10 @@
         <v>286</v>
       </c>
       <c r="I23" t="s" s="0">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="J23" t="s" s="0">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="K23" t="s" s="0">
         <v>264</v>
@@ -3589,10 +3587,10 @@
         <v>45279</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s" s="0">
         <v>32</v>
       </c>
@@ -3615,10 +3613,10 @@
         <v>287</v>
       </c>
       <c r="I24" t="s" s="0">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="J24" t="s" s="0">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K24" t="s" s="0">
         <v>264</v>
@@ -3636,10 +3634,10 @@
         <v>39982</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s" s="0">
         <v>33</v>
       </c>
@@ -3662,16 +3660,16 @@
         <v>288</v>
       </c>
       <c r="I25" t="s" s="0">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="J25" t="s" s="0">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K25" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L25" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M25" s="0">
         <v>799</v>
@@ -3683,16 +3681,16 @@
         <v>41034</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s" s="0">
         <v>34</v>
       </c>
@@ -3718,10 +3716,10 @@
         <v>289</v>
       </c>
       <c r="I27" t="s" s="0">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="J27" t="s" s="0">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K27" t="s" s="0">
         <v>264</v>
@@ -3739,10 +3737,10 @@
         <v>39525</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s" s="0">
         <v>35</v>
       </c>
@@ -3768,16 +3766,16 @@
         <v>290</v>
       </c>
       <c r="I28" t="s" s="0">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J28" t="s" s="0">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K28" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L28" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M28" s="0">
         <v>410</v>
@@ -3789,10 +3787,10 @@
         <v>42667</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s" s="0">
         <v>36</v>
       </c>
@@ -3818,10 +3816,10 @@
         <v>291</v>
       </c>
       <c r="I29" t="s" s="0">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J29" t="s" s="0">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="K29" t="s" s="0">
         <v>264</v>
@@ -3839,10 +3837,10 @@
         <v>44639</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s" s="0">
         <v>37</v>
       </c>
@@ -3868,10 +3866,10 @@
         <v>292</v>
       </c>
       <c r="I30" t="s" s="0">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="J30" t="s" s="0">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K30" t="s" s="0">
         <v>264</v>
@@ -3889,10 +3887,10 @@
         <v>37937</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s" s="0">
         <v>38</v>
       </c>
@@ -3918,10 +3916,10 @@
         <v>293</v>
       </c>
       <c r="I31" t="s" s="0">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="J31" t="s" s="0">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="K31" t="s" s="0">
         <v>264</v>
@@ -3939,10 +3937,10 @@
         <v>43242</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s" s="0">
         <v>39</v>
       </c>
@@ -3968,10 +3966,10 @@
         <v>294</v>
       </c>
       <c r="I32" t="s" s="0">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J32" t="s" s="0">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K32" t="s" s="0">
         <v>264</v>
@@ -3989,28 +3987,28 @@
         <v>39555</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="4"/>
       <c r="F35" s="6"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s" s="0">
         <v>40</v>
       </c>
@@ -4036,16 +4034,16 @@
         <v>295</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K36" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L36" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M36" s="0">
         <v>413</v>
@@ -4057,10 +4055,10 @@
         <v>43230</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s" s="0">
         <v>41</v>
       </c>
@@ -4086,10 +4084,10 @@
         <v>296</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K37" t="s" s="0">
         <v>264</v>
@@ -4107,10 +4105,10 @@
         <v>38841</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s" s="0">
         <v>42</v>
       </c>
@@ -4136,10 +4134,10 @@
         <v>297</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="K38" t="s" s="0">
         <v>264</v>
@@ -4157,10 +4155,10 @@
         <v>44389</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s" s="0">
         <v>43</v>
       </c>
@@ -4186,10 +4184,10 @@
         <v>298</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K39" t="s" s="0">
         <v>264</v>
@@ -4207,10 +4205,10 @@
         <v>45242</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s" s="0">
         <v>44</v>
       </c>
@@ -4236,10 +4234,10 @@
         <v>299</v>
       </c>
       <c r="I40" t="s" s="0">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J40" t="s" s="0">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="K40" t="s" s="0">
         <v>264</v>
@@ -4257,10 +4255,10 @@
         <v>41309</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s" s="0">
         <v>45</v>
       </c>
@@ -4286,10 +4284,10 @@
         <v>300</v>
       </c>
       <c r="I41" t="s" s="0">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="J41" t="s" s="0">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K41" t="s" s="0">
         <v>264</v>
@@ -4307,10 +4305,10 @@
         <v>45142</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s" s="0">
         <v>46</v>
       </c>
@@ -4336,10 +4334,10 @@
         <v>301</v>
       </c>
       <c r="I42" t="s" s="0">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="J42" t="s" s="0">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="K42" t="s" s="0">
         <v>264</v>
@@ -4357,10 +4355,10 @@
         <v>45048</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s" s="0">
         <v>47</v>
       </c>
@@ -4386,10 +4384,10 @@
         <v>302</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="K43" t="s" s="0">
         <v>264</v>
@@ -4407,10 +4405,10 @@
         <v>44479</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s" s="0">
         <v>39</v>
       </c>
@@ -4436,10 +4434,10 @@
         <v>303</v>
       </c>
       <c r="I44" t="s" s="0">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="J44" t="s" s="0">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="K44" t="s" s="0">
         <v>264</v>
@@ -4457,10 +4455,10 @@
         <v>42624</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s" s="0">
         <v>48</v>
       </c>
@@ -4486,10 +4484,10 @@
         <v>304</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="K45" t="s" s="0">
         <v>264</v>
@@ -4507,10 +4505,10 @@
         <v>42708</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s" s="0">
         <v>49</v>
       </c>
@@ -4536,10 +4534,10 @@
         <v>305</v>
       </c>
       <c r="I46" t="s" s="0">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="J46" t="s" s="0">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="K46" t="s" s="0">
         <v>264</v>
@@ -4557,10 +4555,10 @@
         <v>44180</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s" s="0">
         <v>50</v>
       </c>
@@ -4586,10 +4584,10 @@
         <v>306</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="K47" t="s" s="0">
         <v>264</v>
@@ -4607,10 +4605,10 @@
         <v>45047</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s" s="0">
         <v>51</v>
       </c>
@@ -4636,16 +4634,16 @@
         <v>286</v>
       </c>
       <c r="I48" t="s" s="0">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J48" t="s" s="0">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K48" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L48" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M48" s="0">
         <v>330</v>
@@ -4657,10 +4655,10 @@
         <v>42182</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s" s="0">
         <v>52</v>
       </c>
@@ -4686,10 +4684,10 @@
         <v>307</v>
       </c>
       <c r="I49" t="s" s="0">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J49" t="s" s="0">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="K49" t="s" s="0">
         <v>264</v>
@@ -4707,10 +4705,10 @@
         <v>43032</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s" s="0">
         <v>53</v>
       </c>
@@ -4736,10 +4734,10 @@
         <v>308</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="K50" t="s" s="0">
         <v>264</v>
@@ -4757,10 +4755,10 @@
         <v>42490</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s" s="0">
         <v>53</v>
       </c>
@@ -4786,16 +4784,16 @@
         <v>309</v>
       </c>
       <c r="I51" t="s" s="0">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J51" t="s" s="0">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K51" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L51" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M51" s="0">
         <v>178</v>
@@ -4807,10 +4805,10 @@
         <v>39101</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s" s="0">
         <v>13</v>
       </c>
@@ -4836,10 +4834,10 @@
         <v>310</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="K52" t="s" s="0">
         <v>264</v>
@@ -4857,10 +4855,10 @@
         <v>44962</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s" s="0">
         <v>14</v>
       </c>
@@ -4886,10 +4884,10 @@
         <v>311</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K53" t="s" s="0">
         <v>264</v>
@@ -4907,10 +4905,10 @@
         <v>42148</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s" s="0">
         <v>15</v>
       </c>
@@ -4939,7 +4937,7 @@
         <v>264</v>
       </c>
       <c r="L54" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M54" s="0">
         <v>556</v>
@@ -4951,10 +4949,10 @@
         <v>43805</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s" s="0">
         <v>15</v>
       </c>
@@ -4980,10 +4978,10 @@
         <v>313</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="K55" t="s" s="0">
         <v>264</v>
@@ -5001,34 +4999,34 @@
         <v>40575</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="4"/>
       <c r="F56" s="6"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="4"/>
       <c r="F57" s="6"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="4"/>
       <c r="F58" s="6"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="4"/>
       <c r="F59" s="6"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s" s="0">
         <v>19</v>
       </c>
@@ -5054,10 +5052,10 @@
         <v>314</v>
       </c>
       <c r="I60" t="s" s="0">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="K60" t="s" s="0">
         <v>264</v>
@@ -5075,10 +5073,10 @@
         <v>38607</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s" s="0">
         <v>54</v>
       </c>
@@ -5104,10 +5102,10 @@
         <v>315</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K61" t="s" s="0">
         <v>264</v>
@@ -5125,10 +5123,10 @@
         <v>42083</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s" s="0">
         <v>21</v>
       </c>
@@ -5154,16 +5152,16 @@
         <v>316</v>
       </c>
       <c r="I62" t="s" s="0">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K62" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L62" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M62" s="0">
         <v>446</v>
@@ -5175,10 +5173,10 @@
         <v>39105</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s" s="0">
         <v>22</v>
       </c>
@@ -5204,10 +5202,10 @@
         <v>317</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="K63" t="s" s="0">
         <v>264</v>
@@ -5225,10 +5223,10 @@
         <v>41938</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s" s="0">
         <v>23</v>
       </c>
@@ -5251,10 +5249,10 @@
         <v>318</v>
       </c>
       <c r="I64" t="s" s="0">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="J64" t="s" s="0">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="K64" t="s" s="0">
         <v>264</v>
@@ -5272,10 +5270,10 @@
         <v>43691</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s" s="0">
         <v>55</v>
       </c>
@@ -5298,10 +5296,10 @@
         <v>319</v>
       </c>
       <c r="I65" t="s" s="0">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="J65" t="s" s="0">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K65" t="s" s="0">
         <v>264</v>
@@ -5319,10 +5317,10 @@
         <v>42810</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s" s="0">
         <v>24</v>
       </c>
@@ -5360,10 +5358,10 @@
         <v>45570</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s" s="0">
         <v>25</v>
       </c>
@@ -5389,10 +5387,10 @@
         <v>321</v>
       </c>
       <c r="I67" t="s" s="0">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="J67" t="s" s="0">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="K67" t="s" s="0">
         <v>264</v>
@@ -5410,10 +5408,10 @@
         <v>40799</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s" s="0">
         <v>26</v>
       </c>
@@ -5439,10 +5437,10 @@
         <v>322</v>
       </c>
       <c r="I68" t="s" s="0">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J68" t="s" s="0">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K68" t="s" s="0">
         <v>264</v>
@@ -5460,10 +5458,10 @@
         <v>42926</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s" s="0">
         <v>27</v>
       </c>
@@ -5489,16 +5487,16 @@
         <v>323</v>
       </c>
       <c r="I69" t="s" s="0">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="J69" t="s" s="0">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="K69" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L69" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M69" s="0">
         <v>983</v>
@@ -5510,10 +5508,10 @@
         <v>43569</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s" s="0">
         <v>16</v>
       </c>
@@ -5539,10 +5537,10 @@
         <v>324</v>
       </c>
       <c r="I70" t="s" s="0">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J70" t="s" s="0">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K70" t="s" s="0">
         <v>264</v>
@@ -5560,10 +5558,10 @@
         <v>42657</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s" s="0">
         <v>17</v>
       </c>
@@ -5589,10 +5587,10 @@
         <v>314</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="J71" t="s" s="0">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K71" t="s" s="0">
         <v>264</v>
@@ -5610,10 +5608,10 @@
         <v>38841</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s" s="0">
         <v>18</v>
       </c>
@@ -5639,10 +5637,10 @@
         <v>325</v>
       </c>
       <c r="I72" t="s" s="0">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="J72" t="s" s="0">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K72" t="s" s="0">
         <v>264</v>
@@ -5660,10 +5658,10 @@
         <v>42522</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s" s="0">
         <v>18</v>
       </c>
@@ -5689,10 +5687,10 @@
         <v>326</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K73" t="s" s="0">
         <v>264</v>
@@ -5710,10 +5708,10 @@
         <v>39748</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s" s="0">
         <v>56</v>
       </c>
@@ -5739,16 +5737,16 @@
         <v>327</v>
       </c>
       <c r="I74" t="s" s="0">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="J74" t="s" s="0">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="K74" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L74" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M74" s="0">
         <v>545</v>
@@ -5760,10 +5758,10 @@
         <v>40427</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s" s="0">
         <v>57</v>
       </c>
@@ -5789,10 +5787,10 @@
         <v>328</v>
       </c>
       <c r="I75" t="s" s="0">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J75" t="s" s="0">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K75" t="s" s="0">
         <v>264</v>
@@ -5810,10 +5808,10 @@
         <v>42543</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s" s="0">
         <v>58</v>
       </c>
@@ -5839,10 +5837,10 @@
         <v>329</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="J76" t="s" s="0">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="K76" t="s" s="0">
         <v>264</v>
@@ -5860,10 +5858,10 @@
         <v>45341</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s" s="0">
         <v>59</v>
       </c>
@@ -5904,16 +5902,16 @@
         <v>39295</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="4"/>
       <c r="F78" s="6"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s" s="0">
         <v>60</v>
       </c>
@@ -5939,10 +5937,10 @@
         <v>331</v>
       </c>
       <c r="I79" t="s" s="0">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="K79" t="s" s="0">
         <v>264</v>
@@ -5960,10 +5958,10 @@
         <v>38315</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s" s="0">
         <v>61</v>
       </c>
@@ -5986,19 +5984,19 @@
         <v>363</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="I80" t="s" s="0">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K80" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L80" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M80" s="0">
         <v>692</v>
@@ -6010,10 +6008,10 @@
         <v>43991</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s" s="0">
         <v>62</v>
       </c>
@@ -6039,10 +6037,10 @@
         <v>333</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="J81" t="s" s="0">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="K81" t="s" s="0">
         <v>264</v>
@@ -6060,10 +6058,10 @@
         <v>45030</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s" s="0">
         <v>63</v>
       </c>
@@ -6089,10 +6087,10 @@
         <v>334</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="K82" t="s" s="0">
         <v>264</v>
@@ -6110,10 +6108,10 @@
         <v>40558</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s" s="0">
         <v>64</v>
       </c>
@@ -6154,10 +6152,10 @@
         <v>42650</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s" s="0">
         <v>65</v>
       </c>
@@ -6180,10 +6178,10 @@
         <v>336</v>
       </c>
       <c r="I84" t="s" s="0">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="J84" t="s" s="0">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="K84" t="s" s="0">
         <v>264</v>
@@ -6201,16 +6199,16 @@
         <v>41024</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
       <c r="E85" s="4"/>
       <c r="F85" s="6"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s" s="0">
         <v>66</v>
       </c>
@@ -6239,7 +6237,7 @@
         <v>264</v>
       </c>
       <c r="L86" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M86" s="0">
         <v>597</v>
@@ -6251,10 +6249,10 @@
         <v>45627</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s" s="0">
         <v>67</v>
       </c>
@@ -6280,10 +6278,10 @@
         <v>338</v>
       </c>
       <c r="I87" t="s" s="0">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="J87" t="s" s="0">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="K87" t="s" s="0">
         <v>264</v>
@@ -6301,10 +6299,10 @@
         <v>39308</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s" s="0">
         <v>68</v>
       </c>
@@ -6330,10 +6328,10 @@
         <v>339</v>
       </c>
       <c r="I88" t="s" s="0">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="J88" t="s" s="0">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="K88" t="s" s="0">
         <v>264</v>
@@ -6351,10 +6349,10 @@
         <v>40028</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s" s="0">
         <v>69</v>
       </c>
@@ -6380,10 +6378,10 @@
         <v>340</v>
       </c>
       <c r="I89" t="s" s="0">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="J89" t="s" s="0">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K89" t="s" s="0">
         <v>264</v>
@@ -6401,10 +6399,10 @@
         <v>39734</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s" s="0">
         <v>52</v>
       </c>
@@ -6427,10 +6425,10 @@
         <v>341</v>
       </c>
       <c r="I90" t="s" s="0">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="J90" t="s" s="0">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="K90" t="s" s="0">
         <v>264</v>
@@ -6448,10 +6446,10 @@
         <v>40418</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s" s="0">
         <v>70</v>
       </c>
@@ -6477,10 +6475,10 @@
         <v>342</v>
       </c>
       <c r="I91" t="s" s="0">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="J91" t="s" s="0">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="K91" t="s" s="0">
         <v>264</v>
@@ -6498,10 +6496,10 @@
         <v>39480</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s" s="0">
         <v>71</v>
       </c>
@@ -6527,10 +6525,10 @@
         <v>343</v>
       </c>
       <c r="I92" t="s" s="0">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="J92" t="s" s="0">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="K92" t="s" s="0">
         <v>264</v>
@@ -6548,10 +6546,10 @@
         <v>39939</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s" s="0">
         <v>72</v>
       </c>
@@ -6577,16 +6575,16 @@
         <v>344</v>
       </c>
       <c r="I93" t="s" s="0">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="J93" t="s" s="0">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K93" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L93" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M93" s="0">
         <v>76</v>
@@ -6598,10 +6596,10 @@
         <v>41007</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s" s="0">
         <v>73</v>
       </c>
@@ -6640,10 +6638,10 @@
         <v>41247</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s" s="0">
         <v>74</v>
       </c>
@@ -6669,10 +6667,10 @@
         <v>346</v>
       </c>
       <c r="I95" t="s" s="0">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="J95" t="s" s="0">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="K95" t="s" s="0">
         <v>264</v>
@@ -6690,46 +6688,46 @@
         <v>45099</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
       <c r="E96" s="4"/>
       <c r="F96" s="6"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
       <c r="E97" s="4"/>
       <c r="F97" s="6"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="E98" s="4"/>
       <c r="F98" s="6"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="E99" s="4"/>
       <c r="F99" s="6"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="E100" s="4"/>
       <c r="F100" s="6"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="E101" s="4"/>
       <c r="F101" s="6"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s" s="0">
         <v>56</v>
       </c>
@@ -6752,13 +6750,13 @@
         <v>373</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I102" t="s" s="0">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="J102" t="s" s="0">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K102" t="s" s="0">
         <v>264</v>
@@ -6776,10 +6774,10 @@
         <v>40726</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s" s="0">
         <v>57</v>
       </c>
@@ -6802,19 +6800,19 @@
         <v>374</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="I103" t="s" s="0">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="J103" t="s" s="0">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K103" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L103" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M103" s="0">
         <v>964</v>
@@ -6826,10 +6824,10 @@
         <v>44937</v>
       </c>
       <c r="Q103" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s" s="0">
         <v>58</v>
       </c>
@@ -6855,10 +6853,10 @@
         <v>349</v>
       </c>
       <c r="I104" t="s" s="0">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="J104" t="s" s="0">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="K104" t="s" s="0">
         <v>264</v>
@@ -6876,10 +6874,10 @@
         <v>40195</v>
       </c>
       <c r="Q104" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s" s="0">
         <v>59</v>
       </c>
@@ -6920,10 +6918,10 @@
         <v>40974</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s" s="0">
         <v>13</v>
       </c>
@@ -6946,19 +6944,19 @@
         <v>381</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I106" t="s" s="0">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="J106" t="s" s="0">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="K106" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L106" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M106" s="0">
         <v>188</v>
@@ -6970,130 +6968,130 @@
         <v>44615</v>
       </c>
       <c r="Q106" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
       <c r="E107" s="4"/>
       <c r="F107" s="6"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="E108" s="4"/>
       <c r="F108" s="6"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
       <c r="E109" s="4"/>
       <c r="F109" s="6"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D110" s="1"/>
       <c r="E110" s="4"/>
       <c r="F110" s="6"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D111" s="1"/>
       <c r="E111" s="4"/>
       <c r="F111" s="6"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D112" s="1"/>
       <c r="E112" s="4"/>
       <c r="F112" s="6"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D113" s="1"/>
       <c r="E113" s="4"/>
       <c r="F113" s="6"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="E114" s="4"/>
       <c r="F114" s="6"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
       <c r="E115" s="4"/>
       <c r="F115" s="6"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
       <c r="E116" s="4"/>
       <c r="F116" s="6"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
       <c r="E117" s="4"/>
       <c r="F117" s="6"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D118" s="1"/>
       <c r="E118" s="4"/>
       <c r="F118" s="6"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
       <c r="E119" s="4"/>
       <c r="F119" s="6"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D120" s="1"/>
       <c r="E120" s="4"/>
       <c r="F120" s="6"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
       <c r="E121" s="4"/>
       <c r="F121" s="6"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D122" s="1"/>
       <c r="E122" s="4"/>
       <c r="F122" s="6"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D123" s="1"/>
       <c r="E123" s="4"/>
       <c r="F123" s="6"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D124" s="1"/>
       <c r="E124" s="4"/>
       <c r="F124" s="6"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D125" s="1"/>
       <c r="E125" s="4"/>
       <c r="F125" s="6"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D126" s="1"/>
       <c r="E126" s="4"/>
       <c r="F126" s="6"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s" s="0">
         <v>75</v>
       </c>
@@ -7119,10 +7117,10 @@
         <v>352</v>
       </c>
       <c r="I127" t="s" s="0">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="J127" t="s" s="0">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="K127" t="s" s="0">
         <v>264</v>
@@ -7140,10 +7138,10 @@
         <v>39738</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s" s="0">
         <v>76</v>
       </c>
@@ -7166,13 +7164,13 @@
         <v>369</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="I128" t="s" s="0">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="K128" t="s" s="0">
         <v>264</v>
@@ -7190,10 +7188,10 @@
         <v>40453</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s" s="0">
         <v>77</v>
       </c>
@@ -7219,10 +7217,10 @@
         <v>354</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="K129" t="s" s="0">
         <v>264</v>
@@ -7240,10 +7238,10 @@
         <v>43473</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s" s="0">
         <v>68</v>
       </c>
@@ -7269,16 +7267,16 @@
         <v>355</v>
       </c>
       <c r="I130" t="s" s="0">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="J130" t="s" s="0">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K130" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L130" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M130" s="0">
         <v>1</v>
@@ -7290,10 +7288,10 @@
         <v>40935</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s" s="0">
         <v>69</v>
       </c>
@@ -7319,10 +7317,10 @@
         <v>356</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="J131" t="s" s="0">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="K131" t="s" s="0">
         <v>264</v>
@@ -7340,10 +7338,10 @@
         <v>44175</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s" s="0">
         <v>52</v>
       </c>
@@ -7369,13 +7367,13 @@
         <v>357</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="K132" t="s" s="0">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="L132" s="0">
         <v>0</v>
@@ -7390,10 +7388,10 @@
         <v>40887</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s" s="0">
         <v>70</v>
       </c>
@@ -7419,10 +7417,10 @@
         <v>358</v>
       </c>
       <c r="I133" t="s" s="0">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J133" t="s" s="0">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K133" t="s" s="0">
         <v>264</v>
@@ -7440,10 +7438,10 @@
         <v>43334</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s" s="0">
         <v>71</v>
       </c>
@@ -7469,16 +7467,16 @@
         <v>359</v>
       </c>
       <c r="I134" t="s" s="0">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="J134" t="s" s="0">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="K134" t="s" s="0">
         <v>264</v>
       </c>
       <c r="L134" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M134" s="0">
         <v>728</v>
@@ -7490,10 +7488,10 @@
         <v>42557</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s" s="0">
         <v>72</v>
       </c>
@@ -7532,10 +7530,10 @@
         <v>43929</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s" s="0">
         <v>73</v>
       </c>
@@ -7561,10 +7559,10 @@
         <v>361</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="J136" t="s" s="0">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K136" t="s" s="0">
         <v>264</v>
@@ -7582,69 +7580,69 @@
         <v>40457</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E137" s="4"/>
       <c r="F137" s="6"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E138" s="4"/>
       <c r="F138" s="6"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E139" s="4"/>
       <c r="F139" s="6"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E140" s="4"/>
       <c r="F140" s="6"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E141" s="4"/>
       <c r="F141" s="6"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E142" s="4"/>
       <c r="F142" s="6"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E143" s="4"/>
       <c r="F143" s="6"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E144" s="4"/>
       <c r="F144" s="6"/>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E145" s="4"/>
       <c r="F145" s="6"/>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E146" s="4"/>
       <c r="F146" s="6"/>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E147" s="4"/>
       <c r="F147" s="6"/>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E148" s="4"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E149" s="4"/>
       <c r="F149" s="6"/>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E150" s="4"/>
       <c r="F150" s="6"/>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F151" s="6"/>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F152" s="6"/>
     </row>
   </sheetData>
@@ -7655,80 +7653,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31A8F51-8D2A-4E56-BAC3-F686CC936FAB}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.88671875"/>
-    <col min="2" max="2" customWidth="true" width="14.88671875"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875"/>
+    <col min="2" max="2" customWidth="true" width="14.85546875"/>
     <col min="6" max="6" customWidth="true" width="46.0"/>
-    <col min="7" max="7" customWidth="true" width="14.33203125"/>
-    <col min="11" max="12" customWidth="true" width="20.6640625"/>
+    <col min="7" max="7" customWidth="true" width="14.28515625"/>
+    <col min="11" max="12" customWidth="true" width="20.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>470</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C1" t="s" s="0">
         <v>469</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>473</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="F1" t="s" s="0">
         <v>474</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>475</v>
       </c>
       <c r="G1" t="s" s="0">
         <v>467</v>
       </c>
       <c r="H1" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="I1" t="s" s="0">
         <v>476</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="J1" t="s" s="0">
         <v>477</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="K1" t="s" s="0">
         <v>478</v>
       </c>
-      <c r="K1" t="s" s="0">
-        <v>479</v>
-      </c>
       <c r="L1" t="s" s="0">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M1" t="s" s="0">
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>471</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>472</v>
       </c>
       <c r="C2" s="0">
         <v>1</v>
       </c>
       <c r="D2" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>480</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>481</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>482</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>264</v>
@@ -7743,24 +7741,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>471</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>472</v>
       </c>
       <c r="C3" s="0">
         <v>1</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>483</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>484</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>264</v>
@@ -7775,24 +7773,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>471</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>472</v>
       </c>
       <c r="C4" s="0">
         <v>1</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>485</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>486</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>264</v>
@@ -7807,219 +7805,460 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>471</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>472</v>
       </c>
       <c r="C5" s="0">
         <v>1</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E5" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>487</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>488</v>
-      </c>
       <c r="G5" t="s" s="0">
         <v>264</v>
       </c>
       <c r="I5" s="0">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="J5" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>471</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>472</v>
-      </c>
       <c r="C6" s="0">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="I6" s="0">
+        <v>9999</v>
+      </c>
+      <c r="J6" s="0">
+        <v>5</v>
+      </c>
+      <c r="M6" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="C7" s="0">
         <v>2</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D7" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>489</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>481</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>490</v>
-      </c>
-      <c r="H6" s="0">
-        <v>12</v>
-      </c>
-      <c r="I6" s="0">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>471</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>472</v>
-      </c>
-      <c r="C7" s="0">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>491</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>491</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>500</v>
       </c>
       <c r="K7" s="0">
         <v>10</v>
       </c>
       <c r="L7" s="0">
+        <v>3</v>
+      </c>
+      <c r="M7" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="C8" s="0">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="K8" s="0">
+        <v>10</v>
+      </c>
+      <c r="L8" s="0">
         <v>1</v>
       </c>
-      <c r="M7" s="0">
+      <c r="M8" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
-        <v>471</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>493</v>
-      </c>
-      <c r="C8" s="0">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>480</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>481</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>482</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="H8" s="0">
-        <v>50</v>
-      </c>
-      <c r="I8" s="0">
-        <v>20</v>
-      </c>
-      <c r="M8" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s" s="0">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C9" s="0">
         <v>4</v>
       </c>
       <c r="D9" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>480</v>
       </c>
-      <c r="E9" t="s" s="0">
-        <v>483</v>
-      </c>
       <c r="F9" t="s" s="0">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>264</v>
+        <v>500</v>
+      </c>
+      <c r="H9" s="0">
+        <v>50</v>
       </c>
       <c r="I9" s="0">
-        <v>9999</v>
-      </c>
-      <c r="J9" s="0">
-        <v>0.75</v>
+        <v>20</v>
       </c>
       <c r="M9" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s" s="0">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="C10" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>490</v>
-      </c>
-      <c r="H10" s="0">
-        <v>25</v>
+        <v>483</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="I10" s="0">
+        <v>50</v>
+      </c>
+      <c r="J10" s="0">
+        <v>1</v>
       </c>
       <c r="M10" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s" s="0">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C11" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>505</v>
-      </c>
-      <c r="H11" s="0">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="I11" s="0">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J11" s="0">
         <v>2</v>
       </c>
       <c r="M11" s="0">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="C12" s="0">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="I12" s="0">
+        <v>100</v>
+      </c>
+      <c r="J12" s="0">
+        <v>5</v>
+      </c>
+      <c r="M12" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="C13" s="0">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="I13" s="0">
+        <v>9999</v>
+      </c>
+      <c r="J13" s="0">
+        <v>10</v>
+      </c>
+      <c r="M13" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="C14" s="0">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="H14" s="0">
+        <v>25</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="C15" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="H15" s="0">
+        <v>20</v>
+      </c>
+      <c r="I15" s="0">
+        <v>30</v>
+      </c>
+      <c r="J15" s="0">
+        <v>2</v>
+      </c>
+      <c r="M15" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="C16" s="0">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="K16" s="0">
+        <v>10</v>
+      </c>
+      <c r="L16" s="0">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="C17" s="0">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="H17" s="0">
+        <v>30</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="C18" s="0">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="K18" s="0">
+        <v>20</v>
+      </c>
+      <c r="L18" s="0">
+        <v>9</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="C19" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="K19" s="0">
+        <v>10</v>
+      </c>
+      <c r="L19" s="0">
+        <v>4</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
